--- a/results/results_sentiment_postprocessed.xlsx
+++ b/results/results_sentiment_postprocessed.xlsx
@@ -80,7 +80,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +100,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,30 +126,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,566 +483,566 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.9318589360430365</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.7005379557680813</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.7101016138673042</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.8057381948595338</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.4459055588762701</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.7561267184698147</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.5415421398684998</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.7997609085475195</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.7925881649731022</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.5983263598326359</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.6778242677824268</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.7686790197250448</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.7973699940227137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.5502471169686985</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.8638110928061504</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.6792970895112576</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.598572213069742</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.5848434925864909</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.6496430532674354</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.5420098846787479</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.5293794618341571</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.5365183964854475</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.4777594728171334</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.5733113673805601</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.5936298736957716</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.500823723228995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.8355263157894737</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.7180451127819549</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.9539473684210527</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.8721804511278195</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.7377819548872181</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.8007518796992481</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.3477443609022556</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.9003759398496241</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.8449248120300752</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.5958646616541353</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>0.7612781954887218</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.8214285714285714</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0.671280276816609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.7665903890160183</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.5217391304347826</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.8306636155606407</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.931350114416476</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.7276887871853547</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.7482837528604119</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.2700228832951945</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.8237986270022883</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.7780320366132724</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.5606407322654462</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.7391304347826086</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0.6773455377574371</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0.8768796992481203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.6423118865866958</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.5985096328607779</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.4463831334060342</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.5703380588876772</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.9320247182842603</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.6110505270810614</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.4278444202108324</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.6012359142130135</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.52453653217012</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.5872410032715376</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>0.5654307524536533</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.4596510359869139</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0.7803203661327232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.5555555555555556</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.6198830409356725</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.5380116959064327</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.6213450292397661</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.5263157894736842</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.8114035087719298</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.5277777777777778</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.5730994152046783</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.5497076023391813</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.5233918128654971</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>0.5160818713450293</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.5350877192982456</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0.6045710139669871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.4357876712328767</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.6288527397260274</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.6648116438356164</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.5222602739726028</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.5809075342465754</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.584332191780822</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.827054794520548</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.4991438356164384</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.4113869863013699</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.4190924657534247</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.4289383561643836</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.5539383561643836</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0.5138686131386861</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.7525510204081632</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.4719387755102041</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.5586734693877551</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.3418367346938775</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.7474489795918368</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.4260204081632653</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.2653061224489796</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.8112244897959183</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.5663265306122449</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.6428571428571429</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>0.5433673469387755</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.5102040816326531</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0.5921501706484642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.73568281938326</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.4361233480176211</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.5859030837004405</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.7444933920704846</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.5859030837004405</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.5330396475770925</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.3524229074889868</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>0.8458149779735683</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0.8237885462555066</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.5682819383259912</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.8237885462555066</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.7224669603524229</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.7455919395465995</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.5591932183572055</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.529377375036539</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.3285589009061678</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.4779304296989185</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.3291435252850044</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.3992984507453961</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.2718503361590178</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.6141479099678456</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.6533177433498977</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.7401344636071324</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.6705641625255773</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.5808243203741597</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>0.8458149779735683</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.6512980269989616</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.6229491173416407</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.4199376947040498</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.6004153686396677</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.3073727933541018</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.6428868120456905</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.3325025960539979</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.725441329179647</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.8293873312564901</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.6447559709241952</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>0.8496365524402908</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.6527518172377985</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>0.921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.8342760180995475</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.8026018099547512</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.4270361990950226</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.8297511312217195</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.3003393665158371</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.5463800904977375</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.458710407239819</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.8829185520361991</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.9445701357466063</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.6606334841628959</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>0.8778280542986425</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>0.955316742081448</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>0.6840105232388191</v>
       </c>
     </row>
@@ -1097,43 +1095,44 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
         <v>0.7174546072580635</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.6467740663282729</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.7400207729797342</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.7588302863523652</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.6240549483838335</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.7387013510742275</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.4253298171861744</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>0.7633287343083972</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.7380158525254744</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0.5581478066423378</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.6878860663585793</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.7152707506517063</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.7115884233291094</v>
       </c>
     </row>
@@ -1141,43 +1140,44 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
         <v>0.544551704458376</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.6157484711741592</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.5497354910493611</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.5713144540333487</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.5536116618601298</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.5976913594309416</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.4778110989943051</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.5578263883447101</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>0.4952103736035571</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.5099084272968198</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.5034836599876887</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.5162257038165143</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>0.6329199977461322</v>
       </c>
     </row>
@@ -1185,43 +1185,44 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
         <v>0.682475686049543</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.4791464995214548</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.4910451513314544</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.5214201854877603</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.5541651961924272</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.4527861688285846</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.2965264553656614</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>0.729981443970707</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>0.6098221369810712</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.6055695405915671</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>0.6792400185732864</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>0.6044984541197452</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>0.7278523627228773</v>
       </c>
     </row>
@@ -1229,43 +1230,44 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3">
         <v>0.7427870225492545</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0.712775463648196</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.4234869468995362</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.7150832499306936</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.3038560799349694</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.594633451271714</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.3956065016469085</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.8041799406079231</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>0.8869787335015482</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0.6526947275435455</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>0.8778280542986425</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.6527518172377985</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>0.8025052616194095</v>
       </c>
     </row>
@@ -1290,16 +1292,16 @@
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.7157699332296089</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.5960287055480785</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.6864974644920698</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.7015784085051429</v>
       </c>
     </row>
@@ -1307,16 +1309,16 @@
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.5703375301788113</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.5430380400951256</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.5209817297483624</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.5098546819021015</v>
       </c>
     </row>
@@ -1324,16 +1326,16 @@
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.5435218805975531</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.4344926067955577</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.6484577071811151</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0.6418692363465158</v>
       </c>
     </row>
@@ -1341,16 +1343,16 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>0.6485331707569201</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.4313653442845307</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0.7812844672176723</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.7652899357682206</v>
       </c>
     </row>
@@ -1415,566 +1417,566 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.922714267134868</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.652555040727187</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.612712139789485</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.6902526089461462</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.5619531944307298</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.6203889221570367</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.5842069837643795</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.7064618999664317</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.6060187510463754</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.4956026486202672</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.5420116260245246</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.5767068064638915</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.3986849970113568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.6782864741641337</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.865822689634096</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.6842615543794615</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.6545357895529129</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.5868121653226006</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.6801293436908732</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.56114296873613</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.6271853815179163</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.6698525771494581</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.4751704808925016</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.6310486977962706</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.6207650163155138</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.2504118616144975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.5588271819581739</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.6320802005012531</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.8888818458417851</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.7046186895810955</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.5042361111111111</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.6337568150120452</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.5580788721257094</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.7962356211792405</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.6001304023845008</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.4634044984676121</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>0.5656575288041319</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.6536019280419532</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0.3356401384083045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.6351397849462366</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.632750284414107</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.7569867291178767</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.9202335967021642</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.564179104477612</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.6397695772695773</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.5601205029689138</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.7463871744693662</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.6445984363894811</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.4472835645886262</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.6093553302855629</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0.6331578038674033</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0.4384398496240601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.6257499358570412</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.6725091299333675</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.6039412997903564</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.6252244479217559</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.9266529807682486</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.6315888988865251</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.5370569392096878</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.5731485080105367</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.4664891963788227</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.5158040818038145</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>0.5160115499254844</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.5311155290920716</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0.3901601830663616</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.5858214235177586</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.6439179387994751</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.6658476658476659</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.6210793596143914</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.5245530579759483</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.8114696507523049</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.5637389950290471</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.5881135255590874</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.5803202961805615</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.5218397884519397</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>0.5132562559391827</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.5417532197756544</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0.3022855069834935</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.4832628292704338</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.6275595793227636</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.6666993464052288</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.5987811180321754</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.5477582846003899</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.5771530023179933</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.8254863278063406</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.5904086178902228</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.525717999504828</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.4381302123856752</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.4764577684147344</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.5523004759554856</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0.2569343065693431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.6474863912904258</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.5948076252101373</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.6225302959522959</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.5896029258098223</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.6093971991069617</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.528657616892911</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.4674202127659575</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.7579883805374001</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.5462264150943397</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.4409638554216868</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>0.5370138834622697</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.6064591896652965</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0.2960750853242321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.5578422380188031</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.5804822565969063</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.566316199376947</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.633757674250632</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.5180591467356174</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.5499144102085278</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.5614973262032086</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.6860189573459716</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.6913992869875223</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.4933235629376323</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.6074229691876751</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.5764471057884232</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.3727959697732998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.4952073071403638</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.53702445187001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.4159575682971945</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.4902041061558005</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.4213478910749987</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.4514257310710187</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.3065643895831066</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.5680857467777496</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.5618043840067254</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.6994499363441886</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.5768772206459007</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.5883350141966193</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>0.4229074889867842</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.5127260398878174</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.5878673226891276</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.5447759211961229</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.5461487711533696</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.5152045283280782</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.5307147113376273</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.5381076898969719</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.5509681349193779</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.5451247873928287</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.4819241516966068</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.7323922670754557</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.5279401965565161</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>0.4605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.521235668014963</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.5625075264932563</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.5226704190118825</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.5523527842020992</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.5026881720430108</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.5126365263351564</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.5087511654407956</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.5408005938784833</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.4796094198736359</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.4998826487845767</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>0.5052429781197942</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>0.7210925039872408</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>0.3420052616194095</v>
       </c>
     </row>
@@ -2027,43 +2029,44 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
         <v>0.6240844803561814</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.6391285085475157</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.6846534744289411</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.6831356960267181</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.5542951438355134</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.643511164532383</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.5658873318987832</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>0.7190675192832388</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.6301500417424539</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0.4703652981422518</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.5870182957276224</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.6210578886721905</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.3557942116645547</v>
       </c>
     </row>
@@ -2071,43 +2074,44 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
         <v>0.5649447295484112</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.6479955493518688</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.645496104014417</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.6150283085227742</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.5361556712881691</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.6043709506022592</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.5503979671193675</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.5838902171532824</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>0.5241758306880707</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.4919246942138098</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.5019085247598004</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.5417230749410705</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>0.316459998873066</v>
       </c>
     </row>
@@ -2115,43 +2119,44 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
         <v>0.5668453121498642</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.5707714445590178</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.5349346878754792</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.5711882354054182</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.5162680789725259</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.5099992527241525</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.4451606428507575</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>0.6270523520618606</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>0.5540153995505326</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.4671437091796595</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>0.5737713577652819</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>0.5904137698834463</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>0.3639261813614387</v>
       </c>
     </row>
@@ -2159,43 +2164,44 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3">
         <v>0.5169808539513903</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.5751874245911919</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.5337231701040027</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.5492507776777344</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.5089463501855445</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.5216756188363918</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.5234294276688838</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.5458843643989306</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>0.5123671036332322</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0.4909034002405918</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>0.5052429781197942</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.5279401965565161</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>0.4012526308097047</v>
       </c>
     </row>
@@ -2220,16 +2226,16 @@
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.657750539839839</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.5878978800888932</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.6065276197226481</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.6040380921999065</v>
       </c>
     </row>
@@ -2237,16 +2243,16 @@
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.6183661728593678</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.563641529669932</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.533330247351721</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.5218157998504355</v>
       </c>
     </row>
@@ -2254,16 +2260,16 @@
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.5609349199974448</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.4904759915158119</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.5494038202640176</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.5820925638243641</v>
       </c>
     </row>
@@ -2271,16 +2277,16 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.5437855565810799</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.5180171322302733</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.5163849560909183</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.5165915873381552</v>
       </c>
     </row>
@@ -2345,566 +2351,566 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.8593612485792501</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.7286102523959259</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.6487983884164112</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.6416614701498808</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.5832415650581789</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.6182528204924087</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.6278099888109043</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.5136005006346384</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.5168035451300899</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.4939996815751416</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.5493503248375812</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.5392149058214256</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.5509434167100921</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.8638722424874066</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.6791605147356841</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.5990659921255284</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.5847157084129465</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.649980458572173</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.5415436280470152</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.530099227027966</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.5372463233165422</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.4780394157836836</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.5738557408372416</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.5940177899368884</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.5387570260916521</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.7867340844194628</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.9015610809749393</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.7072973171988906</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.5059890527969367</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.7157818086612175</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.5985534637506852</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.6708802762164241</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.5703631885978908</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.4250672950263044</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>0.601408900125181</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.7341335100594815</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.5959799608993157</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.6710960410557185</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.8016862170087977</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.8736864613880744</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.5486009286412512</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.6478647360703813</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.5210318914956011</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.699993890518084</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.5621487047898338</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.4340786901270772</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.6008369990224829</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0.6884775171065494</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.5809384036566027</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.6488357534487941</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.5344294849869926</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.6135219676005099</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.9329676730615757</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.6339724096472954</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.5132895950581968</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.566714550749873</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.4730462361244986</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.5066664593762632</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>0.512352849724822</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.5215204751096048</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.5467005467005467</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.6247786247786248</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.5490875490875491</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.6203511203511203</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.5228305228305228</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.811003311003311</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.5364210364210364</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.5666435666435666</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.5404635404635405</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.5175945175945176</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>0.5071610071610072</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.5386925386925387</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.4884275329495698</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.5660008088018276</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.6161078270924333</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.5735285079882457</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.5380698316159572</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.57929672177293</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.8133223166330172</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.5579207571477672</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.5012610024742052</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.439908148640477</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.4847636454959374</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.5541172641253901</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.5799319727891157</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.6037414965986394</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.6547619047619048</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.5476190476190476</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.5187074829931972</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.532312925170068</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.4931972789115647</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.6972789115646258</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.5612244897959183</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.4591836734693878</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>0.5493197278911565</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.6258503401360545</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.5750744047619047</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.6316220238095238</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.6267113095238095</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.7204613095238095</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.5332589285714285</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.5954613095238095</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.5821428571428571</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.593452380952381</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.7556547619047619</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.487797619047619</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.5570684523809524</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.6139880952380953</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.4951149220806945</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.5427518442088285</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.4499594787985167</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.4887202811578389</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.4571060350893839</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.4491595309819176</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.3833716802264444</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.5726147837156162</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.5430141448642836</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.6995491275093495</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.5409382733619552</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.6020094562647753</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.5185207055214723</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.654357745398773</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.5692960122699386</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.5797331288343559</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.5169336656441718</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.5478972392638037</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.5447595858895705</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.5602147239263804</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.5008972392638037</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.4752592024539878</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.7285118865030675</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.5421108128834355</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.5695427722492883</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.775714392424079</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.6408035721696117</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.6953903740652518</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.5140762073916688</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.581515018217733</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.5560890386514727</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.5948816054844092</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.4920447849145551</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.4993318781279308</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>0.5112584760181597</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>0.794537999950202</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -2957,43 +2963,44 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
         <v>0.5618934679003533</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.728813459290369</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.7098817067202976</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.6493415931580999</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.5556368137273284</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.6579699559490451</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.5722347430260515</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.6036434735992782</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.5466404404585892</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0.4577962706280517</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.5813629912056216</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.6389609307310862</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -3001,43 +3008,44 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
         <v>0.5386888277689064</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.6132050623430821</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.5665416203889917</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.6024671986466253</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.5304501772232399</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.6066345657101126</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.5248553157396166</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.563759624847069</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>0.5049235930207482</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.4880563752037526</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.5014258341272556</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.5381100926425112</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -3045,43 +3053,44 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
         <v>0.5500404332105716</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.5927051215389972</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.5771442310280769</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.5856002127668986</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.5030241488846698</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.5256445885585984</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.4862372720936221</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>0.5830335823339986</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>0.5521193173301009</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.4734906462585034</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>0.5491088178780213</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>0.6139492972129751</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -3089,43 +3098,44 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3">
         <v>0.5440317388853804</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.715036068911426</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.6050497922197752</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.6375617514498039</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.5155049365179203</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.5647061287407684</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.5504243122705217</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.5775481647053948</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>0.4964710120891794</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0.4872955402909593</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>0.5112584760181597</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.5421108128834355</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -3150,16 +3160,16 @@
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.6624825567672801</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.5952805042341417</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.5360267282286397</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.610161960968354</v>
       </c>
     </row>
@@ -3167,16 +3177,16 @@
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.5802256772869013</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.5539800195576564</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.5189131976905232</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.5197679633848834</v>
       </c>
     </row>
@@ -3184,16 +3194,16 @@
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.5763724996361361</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.5049686698456302</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.5362145153075343</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.5815290575454982</v>
       </c>
     </row>
@@ -3201,16 +3211,16 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.6254198378665964</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.5435451258430701</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.5204382390285113</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.5266846444507975</v>
       </c>
     </row>
@@ -3275,566 +3285,566 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.886302287760932</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.6480649878884605</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.6190238073438649</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.6578040931973675</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.4383533366433769</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.6192892042031992</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.5163254498201096</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.4747735159637625</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.4884418709779182</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.4849251204011171</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.5432955256233967</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.5381304817717157</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.4436315264383106</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.4529419338225827</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.8636373518335559</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.677017048974802</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.559236847725493</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.5822674651473847</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.634470802919708</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.5018571533532409</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.4189030032339082</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.424638518855719</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.4623794345979746</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.521347302016447</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.5699860102013203</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.3336992316136114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.5435099719290504</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.623113797907762</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.8950747353019901</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.7059435557289634</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.5009204666387584</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.6532177228422962</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.3384673272293992</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.7101055899982522</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.5800713275974654</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.4233222246310684</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>0.5715879980723869</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.6766226453726454</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>0.4016563146997929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.6059861395940881</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.5158985503405507</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.7738727903334079</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.8941786129407207</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.5512843743798159</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.6433976261127597</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.2519090933483592</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.7175794200344119</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.5644950838872735</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.4366741862713503</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.604443244616655</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0.6273969123596321</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>0.4672008012018027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.5679967826980651</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.5940762113862558</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.3881041885734314</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.5677222303832454</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.9294555025687101</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.6108399034625633</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.3710010586757373</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.5663764345111164</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.4603131655517892</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.4561841017142525</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>0.5004028402334685</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.4402233378513725</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>0.4383033419023136</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.4931554931554932</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.6086267605633804</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.446596274182481</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.6202337900091535</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.5159700866648029</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.8111512292634693</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.476006270886154</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.5420889007088947</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.4802790633418527</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.4958033356246156</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>0.447491916295528</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.52796875</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>0.3767804657472304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.4132322190484249</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.5368825909542522</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.6089358456873942</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.5075304891871061</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.5290740570285307</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.5767331781156937</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.8178916006730577</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.4744869117799749</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.301932009655593</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.4184930450164742</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.4015198306246178</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.5493386654817448</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>0.3394406943105111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.5851761343180999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.4711644366816781</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.5504557356401844</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.3291055271048372</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.4805027910525682</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.4243684042212984</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.2316864026133116</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.7172378835731275</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.5262604145932266</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.4451409390544748</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>0.5095033378770403</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.5069182389937107</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>0.3719185423365488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.5617760617760618</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.4223918575063613</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.5183730588660167</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.6430817610062893</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.4836914440572978</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.4791774891774893</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.3491896319700427</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.6134384274801732</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.7130940343781598</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.4563538611925708</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.5656333716035209</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.5806773200410497</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.4271284271284271</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.4950840145322434</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.5164668555917252</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.3099356244451651</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.4658246674947822</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.3068139529031908</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.3987639612183083</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.2522404371584699</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.5690198851055641</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.5380269534167714</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.6994994504814254</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.5267185065020756</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.569240428080207</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>0.4582338902147972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.5049457447232601</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.5571916396424818</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.4064436350751809</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.5174017629307777</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.3069351180409627</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.5199710117748938</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.3314616194616195</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.553680759632412</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.4575563205522897</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.4732452456853908</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.7304194179433181</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.5200272148411028</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>0.4794377928162415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.5143216897821956</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.559846061111884</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.3433998261515444</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.5552305343154175</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.2574301430905008</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.3978886935548251</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.3521639829462024</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.549503128450497</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.4857475276323444</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.4317974867965763</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>0.5017951072889705</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>0.7517485065487902</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>0.4061794827286929</v>
       </c>
     </row>
@@ -3887,43 +3897,44 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
         <v>0.5341460151152404</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.5956924453789244</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0.6899712155506915</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.6409948322172746</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.518206410702334</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.6375938390194908</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.4021397559377772</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.5803403823075837</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.514411700329594</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0.4518252414753776</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.5601685175822213</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.6030340124263284</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.4115469684883794</v>
       </c>
     </row>
@@ -3931,43 +3942,44 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
         <v>0.491461498300661</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.5798618543012961</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.4812121028144355</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.565162169859835</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.5225220718466668</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>0.5937865407891285</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.4235036647809456</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.5276507489999953</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>0.4141747461830783</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.4568268274517808</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.4498048623845381</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.5058435844443725</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>0.3848415006533517</v>
       </c>
     </row>
@@ -3975,43 +3987,44 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
         <v>0.5473454035421349</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.470007716593255</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.4595881396504555</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.4793373185353029</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.4236693960043523</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.4341032848723653</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.2777054905806081</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>0.5912291562928687</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>0.532143684004999</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.4507474001235228</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>0.5339517386608789</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>0.5522786623716558</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>0.4190936198932577</v>
       </c>
     </row>
@@ -4019,43 +4032,44 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3">
         <v>0.5096337172527279</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.5585188503771829</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.3749217306133626</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.5363161486230976</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.2821826305657317</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.4589298526648594</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.3418128012039109</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.5515919440414545</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>0.471651924092317</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0.4525213662409835</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>0.5017951072889705</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.5200272148411028</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>0.4428086377724672</v>
       </c>
     </row>
@@ -4080,16 +4094,16 @@
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.6152011270655328</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.5193133352198673</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.5155257747041851</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.5816012650042748</v>
       </c>
     </row>
@@ -4097,16 +4111,16 @@
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.529424406319057</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.5132707591389136</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.4662174408782848</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.4778242234144553</v>
       </c>
     </row>
@@ -4114,16 +4128,16 @@
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.4890696445802871</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.3784927238191085</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.5247067468071301</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.5431152005162674</v>
       </c>
     </row>
@@ -4131,16 +4145,16 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>0.4948476117165928</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.3609750948115007</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.491921744791585</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0.5109111610650366</v>
       </c>
     </row>

--- a/results/results_sentiment_postprocessed.xlsx
+++ b/results/results_sentiment_postprocessed.xlsx
@@ -83,8 +83,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +121,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1D1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C78F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79D97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAFF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFECC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,15 +175,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,6 +537,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -442,832 +549,832 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.9318589360430365</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>0.7005379557680813</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>0.7101016138673042</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.8057381948595338</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>0.4459055588762701</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <v>0.7561267184698147</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="9">
         <v>0.5415421398684998</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>0.7997609085475195</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="9">
         <v>0.7925881649731022</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="9">
         <v>0.5983263598326359</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <v>0.6778242677824268</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>0.7686790197250448</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="9">
         <v>0.7973699940227137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>0.5502471169686985</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>0.8638110928061504</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>0.6792970895112576</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.598572213069742</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>0.5848434925864909</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>0.6496430532674354</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>0.5420098846787479</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>0.5293794618341571</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>0.5365183964854475</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>0.4777594728171334</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.5733113673805601</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>0.5936298736957716</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>0.500823723228995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.8355263157894737</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>0.7180451127819549</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>0.9539473684210527</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.8721804511278195</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>0.7377819548872181</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.8007518796992481</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>0.3477443609022556</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>0.9003759398496241</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>0.8449248120300752</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>0.5958646616541353</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.7612781954887218</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.8214285714285714</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>0.671280276816609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.7665903890160183</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>0.5217391304347826</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>0.8306636155606407</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>0.931350114416476</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>0.7276887871853547</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>0.7482837528604119</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.2700228832951945</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>0.8237986270022883</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>0.7780320366132724</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>0.5606407322654462</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.7391304347826086</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.6773455377574371</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>0.8768796992481203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>0.6423118865866958</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>0.5985096328607779</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>0.4463831334060342</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.5703380588876772</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>0.9320247182842603</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0.6110505270810614</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>0.4278444202108324</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>0.6012359142130135</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>0.52453653217012</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>0.5872410032715376</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.5654307524536533</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.4596510359869139</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>0.7803203661327232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>0.5555555555555556</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>0.6198830409356725</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>0.5380116959064327</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.6213450292397661</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.5263157894736842</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.8114035087719298</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>0.5277777777777778</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>0.5730994152046783</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>0.5497076023391813</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>0.5233918128654971</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.5160818713450293</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.5350877192982456</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>0.6045710139669871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.4357876712328767</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>0.6288527397260274</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.6648116438356164</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.5222602739726028</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.5809075342465754</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.584332191780822</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>0.827054794520548</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>0.4991438356164384</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.4113869863013699</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.4190924657534247</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.4289383561643836</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.5539383561643836</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>0.5138686131386861</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>0.7525510204081632</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>0.4719387755102041</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>0.5586734693877551</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.3418367346938775</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.7474489795918368</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0.4260204081632653</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>0.2653061224489796</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>0.8112244897959183</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>0.5663265306122449</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>0.6428571428571429</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.5433673469387755</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.5102040816326531</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <v>0.5921501706484642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0.73568281938326</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0.4361233480176211</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>0.5859030837004405</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.7444933920704846</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.5859030837004405</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0.5330396475770925</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>0.3524229074889868</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="8">
         <v>0.8458149779735683</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="9">
         <v>0.8237885462555066</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="9">
         <v>0.5682819383259912</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.8237885462555066</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.7224669603524229</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="9">
         <v>0.7455919395465995</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>0.5591932183572055</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>0.529377375036539</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>0.3285589009061678</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.4779304296989185</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>0.3291435252850044</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0.3992984507453961</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>0.2718503361590178</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>0.6141479099678456</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="9">
         <v>0.6533177433498977</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="9">
         <v>0.7401344636071324</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.6705641625255773</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.5808243203741597</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="8">
         <v>0.8458149779735683</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>0.6512980269989616</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>0.6229491173416407</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>0.4199376947040498</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>0.6004153686396677</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>0.3073727933541018</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>0.6428868120456905</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>0.3325025960539979</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="9">
         <v>0.725441329179647</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="9">
         <v>0.8293873312564901</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="9">
         <v>0.6447559709241952</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="9">
         <v>0.8496365524402908</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <v>0.6527518172377985</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="8">
         <v>0.921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>0.8342760180995475</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>0.8026018099547512</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>0.4270361990950226</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>0.8297511312217195</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>0.3003393665158371</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>0.5463800904977375</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>0.458710407239819</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>0.8829185520361991</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="9">
         <v>0.9445701357466063</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="9">
         <v>0.6606334841628959</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <v>0.8778280542986425</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>0.955316742081448</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="9">
         <v>0.6840105232388191</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
         <v>0.7174546072580635</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>0.6467740663282729</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>0.7400207729797342</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>0.7588302863523652</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>0.6240549483838335</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>0.7387013510742275</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>0.4253298171861744</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="8">
         <v>0.7633287343083972</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="9">
         <v>0.7380158525254744</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="9">
         <v>0.5581478066423378</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <v>0.6878860663585793</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="9">
         <v>0.7152707506517063</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="9">
         <v>0.7115884233291094</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9">
         <v>0.544551704458376</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>0.6157484711741592</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>0.5497354910493611</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>0.5713144540333487</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>0.5536116618601298</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>0.5976913594309416</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>0.4778110989943051</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="9">
         <v>0.5578263883447101</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="9">
         <v>0.4952103736035571</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="9">
         <v>0.5099084272968198</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>0.5034836599876887</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>0.5162257038165143</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="8">
         <v>0.6329199977461322</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="9">
         <v>0.682475686049543</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>0.4791464995214548</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>0.4910451513314544</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>0.5214201854877603</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>0.5541651961924272</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>0.4527861688285846</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>0.2965264553656614</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="8">
         <v>0.729981443970707</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="9">
         <v>0.6098221369810712</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
         <v>0.6055695405915671</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>0.6792400185732864</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <v>0.6044984541197452</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <v>0.7278523627228773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="9">
         <v>0.7427870225492545</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>0.712775463648196</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>0.4234869468995362</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>0.7150832499306936</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>0.3038560799349694</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>0.594633451271714</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>0.3956065016469085</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="9">
         <v>0.8041799406079231</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="8">
         <v>0.8869787335015482</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="9">
         <v>0.6526947275435455</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>0.8778280542986425</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>0.6527518172377985</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <v>0.8025052616194095</v>
       </c>
     </row>
@@ -1275,84 +1382,89 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8">
         <v>0.7157699332296089</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="9">
         <v>0.5960287055480785</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="9">
         <v>0.6864974644920698</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="9">
         <v>0.7015784085051429</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8">
         <v>0.5703375301788113</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="9">
         <v>0.5430380400951256</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="9">
         <v>0.5209817297483624</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="9">
         <v>0.5098546819021015</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="9">
         <v>0.5435218805975531</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="9">
         <v>0.4344926067955577</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="8">
         <v>0.6484577071811151</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="9">
         <v>0.6418692363465158</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="9">
         <v>0.6485331707569201</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="9">
         <v>0.4313653442845307</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="8">
         <v>0.7812844672176723</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="9">
         <v>0.7652899357682206</v>
       </c>
     </row>
@@ -1368,6 +1480,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1376,832 +1492,832 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.922714267134868</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>0.652555040727187</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>0.612712139789485</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.6902526089461462</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>0.5619531944307298</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <v>0.6203889221570367</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="9">
         <v>0.5842069837643795</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>0.7064618999664317</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="9">
         <v>0.6060187510463754</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="9">
         <v>0.4956026486202672</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <v>0.5420116260245246</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>0.5767068064638915</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="9">
         <v>0.3986849970113568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>0.6782864741641337</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>0.865822689634096</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>0.6842615543794615</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.6545357895529129</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>0.5868121653226006</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>0.6801293436908732</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>0.56114296873613</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>0.6271853815179163</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>0.6698525771494581</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>0.4751704808925016</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.6310486977962706</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>0.6207650163155138</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>0.2504118616144975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.5588271819581739</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>0.6320802005012531</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>0.8888818458417851</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.7046186895810955</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>0.5042361111111111</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.6337568150120452</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>0.5580788721257094</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>0.7962356211792405</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>0.6001304023845008</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>0.4634044984676121</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.5656575288041319</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.6536019280419532</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>0.3356401384083045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.6351397849462366</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>0.632750284414107</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>0.7569867291178767</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>0.9202335967021642</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>0.564179104477612</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>0.6397695772695773</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.5601205029689138</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>0.7463871744693662</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>0.6445984363894811</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>0.4472835645886262</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.6093553302855629</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.6331578038674033</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>0.4384398496240601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>0.6257499358570412</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>0.6725091299333675</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>0.6039412997903564</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.6252244479217559</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>0.9266529807682486</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0.6315888988865251</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>0.5370569392096878</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>0.5731485080105367</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>0.4664891963788227</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>0.5158040818038145</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.5160115499254844</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.5311155290920716</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>0.3901601830663616</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>0.5858214235177586</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>0.6439179387994751</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>0.6658476658476659</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.6210793596143914</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.5245530579759483</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.8114696507523049</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>0.5637389950290471</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>0.5881135255590874</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>0.5803202961805615</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>0.5218397884519397</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.5132562559391827</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.5417532197756544</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>0.3022855069834935</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.4832628292704338</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>0.6275595793227636</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.6666993464052288</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.5987811180321754</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.5477582846003899</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.5771530023179933</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>0.8254863278063406</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>0.5904086178902228</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.525717999504828</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.4381302123856752</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.4764577684147344</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.5523004759554856</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>0.2569343065693431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>0.6474863912904258</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>0.5948076252101373</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>0.6225302959522959</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.5896029258098223</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.6093971991069617</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0.528657616892911</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>0.4674202127659575</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>0.7579883805374001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>0.5462264150943397</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>0.4409638554216868</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.5370138834622697</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.6064591896652965</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <v>0.2960750853242321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0.5578422380188031</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0.5804822565969063</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>0.566316199376947</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.633757674250632</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.5180591467356174</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0.5499144102085278</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>0.5614973262032086</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="9">
         <v>0.6860189573459716</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>0.6913992869875223</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="9">
         <v>0.4933235629376323</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.6074229691876751</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.5764471057884232</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="9">
         <v>0.3727959697732998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>0.4952073071403638</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>0.53702445187001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>0.4159575682971945</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.4902041061558005</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>0.4213478910749987</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0.4514257310710187</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>0.3065643895831066</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>0.5680857467777496</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="9">
         <v>0.5618043840067254</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>0.6994499363441886</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.5768772206459007</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.5883350141966193</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="9">
         <v>0.4229074889867842</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>0.5127260398878174</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>0.5878673226891276</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>0.5447759211961229</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>0.5461487711533696</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>0.5152045283280782</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>0.5307147113376273</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>0.5381076898969719</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="9">
         <v>0.5509681349193779</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="9">
         <v>0.5451247873928287</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="9">
         <v>0.4819241516966068</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="8">
         <v>0.7323922670754557</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <v>0.5279401965565161</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="9">
         <v>0.4605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>0.521235668014963</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>0.5625075264932563</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>0.5226704190118825</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>0.5523527842020992</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>0.5026881720430108</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>0.5126365263351564</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>0.5087511654407956</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>0.5408005938784833</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="9">
         <v>0.4796094198736359</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="9">
         <v>0.4998826487845767</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <v>0.5052429781197942</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>0.7210925039872408</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="9">
         <v>0.3420052616194095</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
         <v>0.6240844803561814</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>0.6391285085475157</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>0.6846534744289411</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>0.6831356960267181</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>0.5542951438355134</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>0.643511164532383</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>0.5658873318987832</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="8">
         <v>0.7190675192832388</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="9">
         <v>0.6301500417424539</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="9">
         <v>0.4703652981422518</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <v>0.5870182957276224</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="9">
         <v>0.6210578886721905</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="9">
         <v>0.3557942116645547</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9">
         <v>0.5649447295484112</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="8">
         <v>0.6479955493518688</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>0.645496104014417</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>0.6150283085227742</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>0.5361556712881691</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>0.6043709506022592</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>0.5503979671193675</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="9">
         <v>0.5838902171532824</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="9">
         <v>0.5241758306880707</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="9">
         <v>0.4919246942138098</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>0.5019085247598004</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>0.5417230749410705</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="9">
         <v>0.316459998873066</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="9">
         <v>0.5668453121498642</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>0.5707714445590178</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>0.5349346878754792</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>0.5711882354054182</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>0.5162680789725259</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>0.5099992527241525</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>0.4451606428507575</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="8">
         <v>0.6270523520618606</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="9">
         <v>0.5540153995505326</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
         <v>0.4671437091796595</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>0.5737713577652819</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <v>0.5904137698834463</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <v>0.3639261813614387</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="9">
         <v>0.5169808539513903</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="8">
         <v>0.5751874245911919</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>0.5337231701040027</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>0.5492507776777344</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>0.5089463501855445</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>0.5216756188363918</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>0.5234294276688838</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="9">
         <v>0.5458843643989306</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="9">
         <v>0.5123671036332322</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="9">
         <v>0.4909034002405918</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>0.5052429781197942</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>0.5279401965565161</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <v>0.4012526308097047</v>
       </c>
     </row>
@@ -2209,84 +2325,89 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8">
         <v>0.657750539839839</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="9">
         <v>0.5878978800888932</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="9">
         <v>0.6065276197226481</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="9">
         <v>0.6040380921999065</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8">
         <v>0.6183661728593678</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="9">
         <v>0.563641529669932</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="9">
         <v>0.533330247351721</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="9">
         <v>0.5218157998504355</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="9">
         <v>0.5609349199974448</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="9">
         <v>0.4904759915158119</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="9">
         <v>0.5494038202640176</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="8">
         <v>0.5820925638243641</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="8">
         <v>0.5437855565810799</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="9">
         <v>0.5180171322302733</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="9">
         <v>0.5163849560909183</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="9">
         <v>0.5165915873381552</v>
       </c>
     </row>
@@ -2302,6 +2423,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -2310,832 +2435,832 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.8593612485792501</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>0.7286102523959259</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>0.6487983884164112</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.6416614701498808</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>0.5832415650581789</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <v>0.6182528204924087</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="9">
         <v>0.6278099888109043</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>0.5136005006346384</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="9">
         <v>0.5168035451300899</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="9">
         <v>0.4939996815751416</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <v>0.5493503248375812</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>0.5392149058214256</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>0.5509434167100921</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>0.8638722424874066</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>0.6791605147356841</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.5990659921255284</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>0.5847157084129465</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>0.649980458572173</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>0.5415436280470152</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>0.530099227027966</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>0.5372463233165422</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>0.4780394157836836</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.5738557408372416</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>0.5940177899368884</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.5387570260916521</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>0.7867340844194628</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>0.9015610809749393</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.7072973171988906</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>0.5059890527969367</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.7157818086612175</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>0.5985534637506852</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>0.6708802762164241</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>0.5703631885978908</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>0.4250672950263044</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.601408900125181</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.7341335100594815</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.5959799608993157</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>0.6710960410557185</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>0.8016862170087977</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>0.8736864613880744</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>0.5486009286412512</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>0.6478647360703813</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.5210318914956011</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>0.699993890518084</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>0.5621487047898338</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>0.4340786901270772</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.6008369990224829</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.6884775171065494</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>0.5809384036566027</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>0.6488357534487941</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>0.5344294849869926</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.6135219676005099</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>0.9329676730615757</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0.6339724096472954</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>0.5132895950581968</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>0.566714550749873</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>0.4730462361244986</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>0.5066664593762632</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.512352849724822</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.5215204751096048</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>0.5467005467005467</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>0.6247786247786248</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>0.5490875490875491</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.6203511203511203</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.5228305228305228</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.811003311003311</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>0.5364210364210364</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>0.5666435666435666</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>0.5404635404635405</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>0.5175945175945176</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.5071610071610072</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.5386925386925387</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.4884275329495698</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>0.5660008088018276</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.6161078270924333</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.5735285079882457</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.5380698316159572</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.57929672177293</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>0.8133223166330172</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>0.5579207571477672</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.5012610024742052</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.439908148640477</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.4847636454959374</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.5541172641253901</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>0.5799319727891157</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>0.6037414965986394</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>0.6547619047619048</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.5476190476190476</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.5187074829931972</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0.532312925170068</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>0.4931972789115647</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>0.6972789115646258</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>0.5612244897959183</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>0.4591836734693878</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.5493197278911565</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.6258503401360545</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0.5750744047619047</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0.6316220238095238</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>0.6267113095238095</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.7204613095238095</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.5332589285714285</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0.5954613095238095</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>0.5821428571428571</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="9">
         <v>0.593452380952381</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>0.7556547619047619</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="9">
         <v>0.487797619047619</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.5570684523809524</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.6139880952380953</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>0.4951149220806945</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>0.5427518442088285</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>0.4499594787985167</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.4887202811578389</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>0.4571060350893839</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0.4491595309819176</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>0.3833716802264444</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>0.5726147837156162</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="9">
         <v>0.5430141448642836</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>0.6995491275093495</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.5409382733619552</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.6020094562647753</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>0.5185207055214723</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>0.654357745398773</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>0.5692960122699386</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>0.5797331288343559</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>0.5169336656441718</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>0.5478972392638037</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>0.5447595858895705</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="9">
         <v>0.5602147239263804</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="9">
         <v>0.5008972392638037</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="9">
         <v>0.4752592024539878</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="8">
         <v>0.7285118865030675</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <v>0.5421108128834355</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>0.5695427722492883</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>0.775714392424079</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>0.6408035721696117</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>0.6953903740652518</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>0.5140762073916688</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>0.581515018217733</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>0.5560890386514727</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>0.5948816054844092</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="9">
         <v>0.4920447849145551</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="9">
         <v>0.4993318781279308</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <v>0.5112584760181597</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>0.794537999950202</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
         <v>0.5618934679003533</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="8">
         <v>0.728813459290369</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>0.7098817067202976</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>0.6493415931580999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>0.5556368137273284</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>0.6579699559490451</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>0.5722347430260515</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="9">
         <v>0.6036434735992782</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="9">
         <v>0.5466404404585892</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="9">
         <v>0.4577962706280517</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <v>0.5813629912056216</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="9">
         <v>0.6389609307310862</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9">
         <v>0.5386888277689064</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="8">
         <v>0.6132050623430821</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>0.5665416203889917</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>0.6024671986466253</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>0.5304501772232399</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>0.6066345657101126</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>0.5248553157396166</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="9">
         <v>0.563759624847069</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="9">
         <v>0.5049235930207482</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="9">
         <v>0.4880563752037526</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>0.5014258341272556</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>0.5381100926425112</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="9">
         <v>0.5500404332105716</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>0.5927051215389972</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>0.5771442310280769</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>0.5856002127668986</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>0.5030241488846698</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>0.5256445885585984</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>0.4862372720936221</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="9">
         <v>0.5830335823339986</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="9">
         <v>0.5521193173301009</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
         <v>0.4734906462585034</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>0.5491088178780213</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="8">
         <v>0.6139492972129751</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="9">
         <v>0.5440317388853804</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="8">
         <v>0.715036068911426</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>0.6050497922197752</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>0.6375617514498039</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>0.5155049365179203</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>0.5647061287407684</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>0.5504243122705217</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="9">
         <v>0.5775481647053948</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="9">
         <v>0.4964710120891794</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="9">
         <v>0.4872955402909593</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>0.5112584760181597</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>0.5421108128834355</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -3143,84 +3268,89 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8">
         <v>0.6624825567672801</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="9">
         <v>0.5952805042341417</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="9">
         <v>0.5360267282286397</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="9">
         <v>0.610161960968354</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8">
         <v>0.5802256772869013</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="9">
         <v>0.5539800195576564</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="9">
         <v>0.5189131976905232</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="9">
         <v>0.5197679633848834</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="9">
         <v>0.5763724996361361</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="9">
         <v>0.5049686698456302</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="9">
         <v>0.5362145153075343</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="8">
         <v>0.5815290575454982</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="8">
         <v>0.6254198378665964</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="9">
         <v>0.5435451258430701</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="9">
         <v>0.5204382390285113</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="9">
         <v>0.5266846444507975</v>
       </c>
     </row>
@@ -3236,6 +3366,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -3244,832 +3378,832 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.886302287760932</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>0.6480649878884605</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>0.6190238073438649</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.6578040931973675</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>0.4383533366433769</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <v>0.6192892042031992</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="9">
         <v>0.5163254498201096</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>0.4747735159637625</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="9">
         <v>0.4884418709779182</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="9">
         <v>0.4849251204011171</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <v>0.5432955256233967</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>0.5381304817717157</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="9">
         <v>0.4436315264383106</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>0.4529419338225827</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>0.8636373518335559</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>0.677017048974802</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.559236847725493</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>0.5822674651473847</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>0.634470802919708</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>0.5018571533532409</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>0.4189030032339082</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>0.424638518855719</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>0.4623794345979746</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.521347302016447</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>0.5699860102013203</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>0.3336992316136114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.5435099719290504</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>0.623113797907762</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>0.8950747353019901</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.7059435557289634</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>0.5009204666387584</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.6532177228422962</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>0.3384673272293992</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>0.7101055899982522</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>0.5800713275974654</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>0.4233222246310684</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.5715879980723869</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.6766226453726454</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>0.4016563146997929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.6059861395940881</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>0.5158985503405507</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>0.7738727903334079</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>0.8941786129407207</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>0.5512843743798159</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>0.6433976261127597</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.2519090933483592</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>0.7175794200344119</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>0.5644950838872735</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>0.4366741862713503</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.604443244616655</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.6273969123596321</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>0.4672008012018027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>0.5679967826980651</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>0.5940762113862558</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>0.3881041885734314</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.5677222303832454</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>0.9294555025687101</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0.6108399034625633</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>0.3710010586757373</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>0.5663764345111164</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>0.4603131655517892</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>0.4561841017142525</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.5004028402334685</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.4402233378513725</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>0.4383033419023136</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>0.4931554931554932</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>0.6086267605633804</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>0.446596274182481</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.6202337900091535</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.5159700866648029</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.8111512292634693</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>0.476006270886154</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>0.5420889007088947</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>0.4802790633418527</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>0.4958033356246156</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.447491916295528</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.52796875</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>0.3767804657472304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.4132322190484249</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>0.5368825909542522</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.6089358456873942</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.5075304891871061</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.5290740570285307</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.5767331781156937</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>0.8178916006730577</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>0.4744869117799749</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.301932009655593</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.4184930450164742</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.4015198306246178</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.5493386654817448</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>0.3394406943105111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>0.5851761343180999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>0.4711644366816781</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>0.5504557356401844</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.3291055271048372</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.4805027910525682</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0.4243684042212984</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>0.2316864026133116</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>0.7172378835731275</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>0.5262604145932266</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>0.4451409390544748</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.5095033378770403</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.5069182389937107</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <v>0.3719185423365488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0.5617760617760618</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0.4223918575063613</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>0.5183730588660167</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.6430817610062893</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.4836914440572978</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0.4791774891774893</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>0.3491896319700427</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="9">
         <v>0.6134384274801732</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>0.7130940343781598</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="9">
         <v>0.4563538611925708</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.5656333716035209</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.5806773200410497</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="9">
         <v>0.4271284271284271</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>0.4950840145322434</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>0.5164668555917252</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>0.3099356244451651</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.4658246674947822</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>0.3068139529031908</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0.3987639612183083</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>0.2522404371584699</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>0.5690198851055641</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="9">
         <v>0.5380269534167714</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>0.6994994504814254</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.5267185065020756</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.569240428080207</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="9">
         <v>0.4582338902147972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>0.5049457447232601</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>0.5571916396424818</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>0.4064436350751809</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>0.5174017629307777</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>0.3069351180409627</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>0.5199710117748938</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>0.3314616194616195</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="9">
         <v>0.553680759632412</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="9">
         <v>0.4575563205522897</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="9">
         <v>0.4732452456853908</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="8">
         <v>0.7304194179433181</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <v>0.5200272148411028</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="9">
         <v>0.4794377928162415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>0.5143216897821956</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>0.559846061111884</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>0.3433998261515444</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>0.5552305343154175</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>0.2574301430905008</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>0.3978886935548251</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>0.3521639829462024</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>0.549503128450497</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="9">
         <v>0.4857475276323444</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="9">
         <v>0.4317974867965763</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <v>0.5017951072889705</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>0.7517485065487902</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="9">
         <v>0.4061794827286929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
         <v>0.5341460151152404</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>0.5956924453789244</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="8">
         <v>0.6899712155506915</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>0.6409948322172746</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>0.518206410702334</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>0.6375938390194908</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>0.4021397559377772</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="9">
         <v>0.5803403823075837</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="9">
         <v>0.514411700329594</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="9">
         <v>0.4518252414753776</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <v>0.5601685175822213</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="9">
         <v>0.6030340124263284</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="9">
         <v>0.4115469684883794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9">
         <v>0.491461498300661</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>0.5798618543012961</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>0.4812121028144355</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>0.565162169859835</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>0.5225220718466668</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="8">
         <v>0.5937865407891285</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>0.4235036647809456</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="9">
         <v>0.5276507489999953</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="9">
         <v>0.4141747461830783</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="9">
         <v>0.4568268274517808</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>0.4498048623845381</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>0.5058435844443725</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="9">
         <v>0.3848415006533517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="9">
         <v>0.5473454035421349</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>0.470007716593255</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>0.4595881396504555</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>0.4793373185353029</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>0.4236693960043523</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>0.4341032848723653</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>0.2777054905806081</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="8">
         <v>0.5912291562928687</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="9">
         <v>0.532143684004999</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
         <v>0.4507474001235228</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>0.5339517386608789</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <v>0.5522786623716558</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <v>0.4190936198932577</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="9">
         <v>0.5096337172527279</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="8">
         <v>0.5585188503771829</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>0.3749217306133626</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>0.5363161486230976</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>0.2821826305657317</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>0.4589298526648594</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>0.3418128012039109</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="9">
         <v>0.5515919440414545</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="9">
         <v>0.471651924092317</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="9">
         <v>0.4525213662409835</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>0.5017951072889705</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>0.5200272148411028</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <v>0.4428086377724672</v>
       </c>
     </row>
@@ -4077,84 +4211,89 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8">
         <v>0.6152011270655328</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="9">
         <v>0.5193133352198673</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="9">
         <v>0.5155257747041851</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="9">
         <v>0.5816012650042748</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8">
         <v>0.529424406319057</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="9">
         <v>0.5132707591389136</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="9">
         <v>0.4662174408782848</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="9">
         <v>0.4778242234144553</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="9">
         <v>0.4890696445802871</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="9">
         <v>0.3784927238191085</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="9">
         <v>0.5247067468071301</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="8">
         <v>0.5431152005162674</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="9">
         <v>0.4948476117165928</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="9">
         <v>0.3609750948115007</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="9">
         <v>0.491921744791585</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="8">
         <v>0.5109111610650366</v>
       </c>
     </row>

--- a/results/results_sentiment_postprocessed.xlsx
+++ b/results/results_sentiment_postprocessed.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="20">
   <si>
     <t>Group</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Introflexive</t>
+  </si>
+  <si>
+    <t>Mean over others</t>
   </si>
 </sst>
 </file>
@@ -232,10 +235,10 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -532,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
     <col min="2" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,13 +627,13 @@
         <v>0.7925881649731022</v>
       </c>
       <c r="L2" s="9">
-        <v>0.5983263598326359</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="M2" s="9">
         <v>0.6778242677824268</v>
       </c>
       <c r="N2" s="9">
-        <v>0.7686790197250448</v>
+        <v>0.7489539748953975</v>
       </c>
       <c r="O2" s="9">
         <v>0.7973699940227137</v>
@@ -671,13 +674,13 @@
         <v>0.5365183964854475</v>
       </c>
       <c r="L3" s="9">
-        <v>0.4777594728171334</v>
+        <v>0.6677649643053267</v>
       </c>
       <c r="M3" s="9">
         <v>0.5733113673805601</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5936298736957716</v>
+        <v>0.5826468973091707</v>
       </c>
       <c r="O3" s="9">
         <v>0.500823723228995</v>
@@ -718,16 +721,16 @@
         <v>0.8449248120300752</v>
       </c>
       <c r="L4" s="9">
-        <v>0.5958646616541353</v>
+        <v>0.7246240601503759</v>
       </c>
       <c r="M4" s="9">
         <v>0.7612781954887218</v>
       </c>
       <c r="N4" s="9">
-        <v>0.8214285714285714</v>
+        <v>0.8909774436090225</v>
       </c>
       <c r="O4" s="9">
-        <v>0.671280276816609</v>
+        <v>0.8768796992481203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -765,16 +768,16 @@
         <v>0.7780320366132724</v>
       </c>
       <c r="L5" s="9">
-        <v>0.5606407322654462</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M5" s="9">
         <v>0.7391304347826086</v>
       </c>
       <c r="N5" s="9">
-        <v>0.6773455377574371</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="O5" s="9">
-        <v>0.8768796992481203</v>
+        <v>0.7803203661327232</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -812,16 +815,16 @@
         <v>0.52453653217012</v>
       </c>
       <c r="L6" s="9">
-        <v>0.5872410032715376</v>
+        <v>0.5912395492548165</v>
       </c>
       <c r="M6" s="9">
         <v>0.5654307524536533</v>
       </c>
       <c r="N6" s="9">
-        <v>0.4596510359869139</v>
+        <v>0.6168665939658307</v>
       </c>
       <c r="O6" s="9">
-        <v>0.7803203661327232</v>
+        <v>0.6045710139669871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -859,16 +862,16 @@
         <v>0.5497076023391813</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5233918128654971</v>
+        <v>0.5906432748538012</v>
       </c>
       <c r="M7" s="9">
         <v>0.5160818713450293</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5350877192982456</v>
+        <v>0.5877192982456141</v>
       </c>
       <c r="O7" s="9">
-        <v>0.6045710139669871</v>
+        <v>0.5138686131386861</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -906,16 +909,16 @@
         <v>0.4113869863013699</v>
       </c>
       <c r="L8" s="9">
-        <v>0.4190924657534247</v>
+        <v>0.5136986301369864</v>
       </c>
       <c r="M8" s="9">
         <v>0.4289383561643836</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5539383561643836</v>
+        <v>0.6228595890410958</v>
       </c>
       <c r="O8" s="9">
-        <v>0.5138686131386861</v>
+        <v>0.5921501706484642</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -959,10 +962,10 @@
         <v>0.5433673469387755</v>
       </c>
       <c r="N9" s="9">
-        <v>0.5102040816326531</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="O9" s="9">
-        <v>0.5921501706484642</v>
+        <v>0.7455919395465995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1000,16 +1003,16 @@
         <v>0.8237885462555066</v>
       </c>
       <c r="L10" s="9">
-        <v>0.5682819383259912</v>
+        <v>0.6255506607929515</v>
       </c>
       <c r="M10" s="9">
         <v>0.8237885462555066</v>
       </c>
       <c r="N10" s="9">
-        <v>0.7224669603524229</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0.7455919395465995</v>
+        <v>0.73568281938326</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.8458149779735683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1020,43 +1023,43 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.5591932183572055</v>
+        <v>0.6058315334773218</v>
       </c>
       <c r="D11" s="9">
-        <v>0.529377375036539</v>
+        <v>0.6997840172786177</v>
       </c>
       <c r="E11" s="9">
-        <v>0.3285589009061678</v>
+        <v>0.5043196544276458</v>
       </c>
       <c r="F11" s="9">
-        <v>0.4779304296989185</v>
+        <v>0.642548596112311</v>
       </c>
       <c r="G11" s="9">
-        <v>0.3291435252850044</v>
+        <v>0.4870410367170626</v>
       </c>
       <c r="H11" s="9">
-        <v>0.3992984507453961</v>
+        <v>0.6058315334773218</v>
       </c>
       <c r="I11" s="9">
-        <v>0.2718503361590178</v>
+        <v>0.4892008639308855</v>
       </c>
       <c r="J11" s="9">
-        <v>0.6141479099678456</v>
+        <v>0.5734341252699784</v>
       </c>
       <c r="K11" s="9">
-        <v>0.6533177433498977</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.7401344636071324</v>
+        <v>0.5950323974082073</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.7505399568034558</v>
       </c>
       <c r="M11" s="9">
-        <v>0.6705641625255773</v>
+        <v>0.6144708423326134</v>
       </c>
       <c r="N11" s="9">
-        <v>0.5808243203741597</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.8458149779735683</v>
+        <v>0.6274298056155507</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.58207343412527</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1094,16 +1097,16 @@
         <v>0.8293873312564901</v>
       </c>
       <c r="L12" s="9">
-        <v>0.6447559709241952</v>
-      </c>
-      <c r="M12" s="9">
+        <v>0.7037383177570093</v>
+      </c>
+      <c r="M12" s="8">
         <v>0.8496365524402908</v>
       </c>
       <c r="N12" s="9">
-        <v>0.6527518172377985</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0.921</v>
+        <v>0.4749740394600208</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.8325724493846764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1114,358 +1117,466 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.8342760180995475</v>
+        <v>0.6723095525997581</v>
       </c>
       <c r="D13" s="9">
-        <v>0.8026018099547512</v>
+        <v>0.717049576783555</v>
       </c>
       <c r="E13" s="9">
-        <v>0.4270361990950226</v>
+        <v>0.5578395808141878</v>
       </c>
       <c r="F13" s="9">
-        <v>0.8297511312217195</v>
+        <v>0.7464731962918179</v>
       </c>
       <c r="G13" s="9">
-        <v>0.3003393665158371</v>
+        <v>0.4651350261991133</v>
       </c>
       <c r="H13" s="9">
-        <v>0.5463800904977375</v>
+        <v>0.6106408706166868</v>
       </c>
       <c r="I13" s="9">
-        <v>0.458710407239819</v>
+        <v>0.5808141878274889</v>
       </c>
       <c r="J13" s="9">
-        <v>0.8829185520361991</v>
+        <v>0.7174526400644902</v>
       </c>
       <c r="K13" s="9">
-        <v>0.9445701357466063</v>
+        <v>0.6783555018137848</v>
       </c>
       <c r="L13" s="9">
-        <v>0.6606334841628959</v>
+        <v>0.6187021362353889</v>
       </c>
       <c r="M13" s="9">
-        <v>0.8778280542986425</v>
+        <v>0.6444981862152358</v>
       </c>
       <c r="N13" s="8">
-        <v>0.955316742081448</v>
+        <v>0.9286577992744861</v>
       </c>
       <c r="O13" s="9">
-        <v>0.6840105232388191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+        <v>0.6817817014446228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9">
+        <v>0.6548810807287986</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.6123102224944487</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.590540206829215</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.6423819553604819</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.5633040033471043</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.63350976318535</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.425198922225786</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.6899033795232185</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.6460723901821178</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.6143123437316009</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.6261927424672286</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.6607099736041149</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.6961515069051188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9">
         <v>0.7174546072580635</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>0.6467740663282729</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>0.7400207729797342</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>0.7588302863523652</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>0.6240549483838335</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>0.7387013510742275</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>0.4253298171861744</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>0.7633287343083972</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>0.7380158525254744</v>
       </c>
-      <c r="L19" s="9">
-        <v>0.5581478066423378</v>
-      </c>
-      <c r="M19" s="9">
+      <c r="L20" s="9">
+        <v>0.6177515172898781</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.6878860663585793</v>
       </c>
-      <c r="N19" s="9">
-        <v>0.7152707506517063</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0.7115884233291094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
+      <c r="N20" s="9">
+        <v>0.7398551052691872</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.7388484456581379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9">
+      <c r="B21" s="13"/>
+      <c r="C21" s="9">
         <v>0.544551704458376</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="8">
         <v>0.6157484711741592</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>0.5497354910493611</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>0.5713144540333487</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>0.5536116618601298</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>0.5976913594309416</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>0.4778110989943051</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>0.5578263883447101</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>0.4952103736035571</v>
       </c>
-      <c r="L20" s="9">
-        <v>0.5099084272968198</v>
-      </c>
-      <c r="M20" s="9">
+      <c r="L21" s="9">
+        <v>0.565193818081868</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.5034836599876887</v>
       </c>
-      <c r="N20" s="9">
-        <v>0.5162257038165143</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0.6329199977461322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="11" t="s">
+      <c r="N21" s="9">
+        <v>0.6091484937508468</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.5701965992513791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9">
-        <v>0.682475686049543</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.4791464995214548</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.4910451513314544</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.5214201854877603</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.5541651961924272</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.4527861688285846</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.2965264553656614</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.729981443970707</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.6098221369810712</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.6055695405915671</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.6792400185732864</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0.6044984541197452</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0.7278523627228773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="9">
+        <v>0.6980217910895816</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.5359487136021476</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.5496320691719471</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.5762929076255577</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.6067977000031133</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.5216305297392266</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.3689766312896173</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.7096245516217734</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.5806794640102262</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.6342039018250472</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.6605422451756318</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.6686565892853178</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.7244934505484792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9">
-        <v>0.7427870225492545</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.712775463648196</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.4234869468995362</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.7150832499306936</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.3038560799349694</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.594633451271714</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.3956065016469085</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.8041799406079231</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0.8869787335015482</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.6526947275435455</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.8778280542986425</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.6527518172377985</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0.8025052616194095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9">
+        <v>0.6618037897993598</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.6699993470625978</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.4888886377591188</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.6734442824657427</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.3862539097766076</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.6267638413311887</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.4566583919407434</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.7214469846220686</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.7538714165351375</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.6612202269961991</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.6444981862152358</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.4749740394600208</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.7571770754146496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9">
+        <v>0.6554579731513452</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.6171176495417943</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.5820692427400402</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.6449704826192536</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.542679555005921</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.6211967703938961</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.43219398485271</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.6880566647242373</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.6419442766685988</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.6195923660482481</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.6241025394342838</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.6231585569413431</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.6976788927181615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8">
+      <c r="B30" s="13"/>
+      <c r="C30" s="8">
         <v>0.7157699332296089</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>0.5960287055480785</v>
       </c>
-      <c r="E28" s="9">
-        <v>0.6864974644920698</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.7015784085051429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="10" t="s">
+      <c r="E30" s="9">
+        <v>0.7063653680412499</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.7138705858138832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8">
         <v>0.5703375301788113</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <v>0.5430380400951256</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.5209817297483624</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.5098546819021015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11" t="s">
+      <c r="E31" s="9">
+        <v>0.5394101933433784</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.5563160768692678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9">
-        <v>0.5435218805975531</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.4344926067955577</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0.6484577071811151</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.6418692363465158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="9">
+        <v>0.5899738703723085</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.499134953677319</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.641502639152349</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.6645994172304748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="9">
-        <v>0.6485331707569201</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.4313653442845307</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0.7812844672176723</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.7652899357682206</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="9">
+        <v>0.6235340142717047</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.4898920476828466</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.7121795427178017</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.5597361128376284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="9">
+        <v>0.5946151382742749</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.528351902302748</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.6526517013674766</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.6449286933045418</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +1586,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
     <col min="2" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1567,13 +1678,13 @@
         <v>0.6060187510463754</v>
       </c>
       <c r="L2" s="9">
-        <v>0.4956026486202672</v>
+        <v>0.5415139052263731</v>
       </c>
       <c r="M2" s="9">
         <v>0.5420116260245246</v>
       </c>
       <c r="N2" s="9">
-        <v>0.5767068064638915</v>
+        <v>0.5481625933541061</v>
       </c>
       <c r="O2" s="9">
         <v>0.3986849970113568</v>
@@ -1614,13 +1725,13 @@
         <v>0.6698525771494581</v>
       </c>
       <c r="L3" s="9">
-        <v>0.4751704808925016</v>
+        <v>0.6959676126342793</v>
       </c>
       <c r="M3" s="9">
         <v>0.6310486977962706</v>
       </c>
       <c r="N3" s="9">
-        <v>0.6207650163155138</v>
+        <v>0.6408034241092578</v>
       </c>
       <c r="O3" s="9">
         <v>0.2504118616144975</v>
@@ -1661,16 +1772,16 @@
         <v>0.6001304023845008</v>
       </c>
       <c r="L4" s="9">
-        <v>0.4634044984676121</v>
+        <v>0.624845373577437</v>
       </c>
       <c r="M4" s="9">
         <v>0.5656575288041319</v>
       </c>
       <c r="N4" s="9">
-        <v>0.6536019280419532</v>
+        <v>0.7481069737103315</v>
       </c>
       <c r="O4" s="9">
-        <v>0.3356401384083045</v>
+        <v>0.4384398496240601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1708,16 +1819,16 @@
         <v>0.6445984363894811</v>
       </c>
       <c r="L5" s="9">
-        <v>0.4472835645886262</v>
+        <v>0.5840190700104493</v>
       </c>
       <c r="M5" s="9">
         <v>0.6093553302855629</v>
       </c>
       <c r="N5" s="9">
-        <v>0.6331578038674033</v>
+        <v>0.6286781159095994</v>
       </c>
       <c r="O5" s="9">
-        <v>0.4384398496240601</v>
+        <v>0.3901601830663616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1755,16 +1866,16 @@
         <v>0.4664891963788227</v>
       </c>
       <c r="L6" s="9">
-        <v>0.5158040818038145</v>
+        <v>0.6350509246071655</v>
       </c>
       <c r="M6" s="9">
         <v>0.5160115499254844</v>
       </c>
       <c r="N6" s="9">
-        <v>0.5311155290920716</v>
+        <v>0.6198502424881566</v>
       </c>
       <c r="O6" s="9">
-        <v>0.3901601830663616</v>
+        <v>0.3022855069834935</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1802,16 +1913,16 @@
         <v>0.5803202961805615</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5218397884519397</v>
+        <v>0.6009005621635501</v>
       </c>
       <c r="M7" s="9">
         <v>0.5132562559391827</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5417532197756544</v>
+        <v>0.5898160345219169</v>
       </c>
       <c r="O7" s="9">
-        <v>0.3022855069834935</v>
+        <v>0.2569343065693431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1849,16 +1960,16 @@
         <v>0.525717999504828</v>
       </c>
       <c r="L8" s="9">
-        <v>0.4381302123856752</v>
+        <v>0.5400789715637987</v>
       </c>
       <c r="M8" s="9">
         <v>0.4764577684147344</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5523004759554856</v>
+        <v>0.6141441120607787</v>
       </c>
       <c r="O8" s="9">
-        <v>0.2569343065693431</v>
+        <v>0.2960750853242321</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1896,16 +2007,16 @@
         <v>0.5462264150943397</v>
       </c>
       <c r="L9" s="9">
-        <v>0.4409638554216868</v>
+        <v>0.6304415909802693</v>
       </c>
       <c r="M9" s="9">
         <v>0.5370138834622697</v>
       </c>
       <c r="N9" s="9">
-        <v>0.6064591896652965</v>
+        <v>0.6256410256410256</v>
       </c>
       <c r="O9" s="9">
-        <v>0.2960750853242321</v>
+        <v>0.3727959697732998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1943,16 +2054,16 @@
         <v>0.6913992869875223</v>
       </c>
       <c r="L10" s="9">
-        <v>0.4933235629376323</v>
+        <v>0.5622785829307568</v>
       </c>
       <c r="M10" s="9">
         <v>0.6074229691876751</v>
       </c>
       <c r="N10" s="9">
-        <v>0.5764471057884232</v>
+        <v>0.5717306441119063</v>
       </c>
       <c r="O10" s="9">
-        <v>0.3727959697732998</v>
+        <v>0.4229074889867842</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1963,43 +2074,43 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.4952073071403638</v>
+        <v>0.5891006128912838</v>
       </c>
       <c r="D11" s="9">
-        <v>0.53702445187001</v>
+        <v>0.7050394725143079</v>
       </c>
       <c r="E11" s="9">
-        <v>0.4159575682971945</v>
+        <v>0.6031447784810127</v>
       </c>
       <c r="F11" s="9">
-        <v>0.4902041061558005</v>
+        <v>0.6453601315002988</v>
       </c>
       <c r="G11" s="9">
-        <v>0.4213478910749987</v>
+        <v>0.5974310776942355</v>
       </c>
       <c r="H11" s="9">
-        <v>0.4514257310710187</v>
+        <v>0.647521959951709</v>
       </c>
       <c r="I11" s="9">
-        <v>0.3065643895831066</v>
+        <v>0.6019638941102756</v>
       </c>
       <c r="J11" s="9">
-        <v>0.5680857467777496</v>
+        <v>0.5512988661364021</v>
       </c>
       <c r="K11" s="9">
-        <v>0.5618043840067254</v>
+        <v>0.5716264521894548</v>
       </c>
       <c r="L11" s="8">
-        <v>0.6994499363441886</v>
+        <v>0.7455492957746479</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5768772206459007</v>
+        <v>0.6114594692838967</v>
       </c>
       <c r="N11" s="9">
-        <v>0.5883350141966193</v>
+        <v>0.618901976404537</v>
       </c>
       <c r="O11" s="9">
-        <v>0.4229074889867842</v>
+        <v>0.291036717062635</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2037,16 +2148,16 @@
         <v>0.5451247873928287</v>
       </c>
       <c r="L12" s="9">
-        <v>0.4819241516966068</v>
+        <v>0.5667899878492364</v>
       </c>
       <c r="M12" s="8">
         <v>0.7323922670754557</v>
       </c>
       <c r="N12" s="9">
-        <v>0.5279401965565161</v>
+        <v>0.5196306690911008</v>
       </c>
       <c r="O12" s="9">
-        <v>0.4605</v>
+        <v>0.4162862246923382</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2057,358 +2168,466 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.521235668014963</v>
+        <v>0.5931478689129233</v>
       </c>
       <c r="D13" s="9">
-        <v>0.5625075264932563</v>
+        <v>0.6707604416216316</v>
       </c>
       <c r="E13" s="9">
-        <v>0.5226704190118825</v>
+        <v>0.6446745029160755</v>
       </c>
       <c r="F13" s="9">
-        <v>0.5523527842020992</v>
+        <v>0.7052451649767086</v>
       </c>
       <c r="G13" s="9">
-        <v>0.5026881720430108</v>
+        <v>0.5862139454465227</v>
       </c>
       <c r="H13" s="9">
-        <v>0.5126365263351564</v>
+        <v>0.630935633107927</v>
       </c>
       <c r="I13" s="9">
-        <v>0.5087511654407956</v>
+        <v>0.6488247962290792</v>
       </c>
       <c r="J13" s="9">
-        <v>0.5408005938784833</v>
+        <v>0.6718988555408572</v>
       </c>
       <c r="K13" s="9">
-        <v>0.4796094198736359</v>
+        <v>0.5045729209340434</v>
       </c>
       <c r="L13" s="9">
-        <v>0.4998826487845767</v>
+        <v>0.6300606871617893</v>
       </c>
       <c r="M13" s="9">
-        <v>0.5052429781197942</v>
+        <v>0.4718507817523435</v>
       </c>
       <c r="N13" s="8">
-        <v>0.7210925039872408</v>
+        <v>0.9211556022806627</v>
       </c>
       <c r="O13" s="9">
-        <v>0.3420052616194095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+        <v>0.3408908507223114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9">
+        <v>0.5879446164286392</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.636393572030024</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.6338082212047752</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.6376915164853917</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.555981619566346</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.6064118991666139</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.562014471003578</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.6443750493214009</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.5691525667858813</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.6010861153368278</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.5528678055341888</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.6114059828547925</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.3480757534525594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9">
         <v>0.6240844803561814</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>0.6391285085475157</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>0.6846534744289411</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>0.6831356960267181</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>0.5542951438355134</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>0.643511164532383</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>0.5658873318987832</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>0.7190675192832388</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>0.6301500417424539</v>
       </c>
-      <c r="L19" s="9">
-        <v>0.4703652981422518</v>
-      </c>
-      <c r="M19" s="9">
+      <c r="L20" s="9">
+        <v>0.6115864903621346</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.5870182957276224</v>
       </c>
-      <c r="N19" s="9">
-        <v>0.6210578886721905</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0.3557942116645547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
+      <c r="N20" s="9">
+        <v>0.6414377767708237</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.3694242228290689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9">
+      <c r="B21" s="13"/>
+      <c r="C21" s="9">
         <v>0.5649447295484112</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>0.6479955493518688</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>0.645496104014417</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>0.6150283085227742</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>0.5361556712881691</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>0.6043709506022592</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>0.5503979671193675</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>0.5838902171532824</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>0.5241758306880707</v>
       </c>
-      <c r="L20" s="9">
-        <v>0.4919246942138098</v>
-      </c>
-      <c r="M20" s="9">
+      <c r="L21" s="9">
+        <v>0.5920101527781715</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.5019085247598004</v>
       </c>
-      <c r="N20" s="9">
-        <v>0.5417230749410705</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0.316459998873066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="11" t="s">
+      <c r="N21" s="9">
+        <v>0.6079367963569507</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.2850982996256896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9">
-        <v>0.5668453121498642</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.5707714445590178</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.5349346878754792</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.5711882354054182</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.5162680789725259</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.5099992527241525</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.4451606428507575</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.6270523520618606</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.5540153995505326</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.4671437091796595</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.5737713577652819</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0.5904137698834463</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0.3639261813614387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="9">
+        <v>0.5981430807335042</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.6267764514404505</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.5973304246034185</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.622906910520251</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.5749624745122716</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.5753646623510492</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.5436271443598139</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.6186589117411869</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.5589264336418973</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.596360086955513</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.5852987739779473</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.6054245487191564</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.3622467252742396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9">
-        <v>0.5169808539513903</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.5751874245911919</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.5337231701040027</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.5492507776777344</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.5089463501855445</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.5216756188363918</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.5234294276688838</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.5458843643989306</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0.5123671036332322</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.4909034002405918</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.5052429781197942</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.5279401965565161</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0.4012526308097047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9">
+        <v>0.5529369544003704</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.6293138821553796</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.5947252120560993</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.625696968065039</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.5507092368873004</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.5808251722227771</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.5934662430630255</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.6114334952301175</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.524848854163436</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.5984253375055129</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.4718507817523435</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.5196306690911008</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.3785885377073248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9">
+        <v>0.5850273112596167</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.6358035978738036</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.630551303775719</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.6366919707836955</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.5540306316308136</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.6010179874271171</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.5633446716102475</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.6332625358519564</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.5595252900589645</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.599595516900333</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.5365190940544284</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.5936074477345079</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.3488394463590808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8">
+      <c r="B30" s="13"/>
+      <c r="C30" s="8">
         <v>0.657750539839839</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>0.5878978800888932</v>
       </c>
-      <c r="E28" s="9">
-        <v>0.6065276197226481</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.6040380921999065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="10" t="s">
+      <c r="E30" s="9">
+        <v>0.6536013504626091</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.6142280362492231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8">
         <v>0.6183661728593678</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <v>0.563641529669932</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.533330247351721</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.5218157998504355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11" t="s">
+      <c r="E31" s="9">
+        <v>0.5666920668731749</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.5549226605583756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9">
-        <v>0.5609349199974448</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.4904759915158119</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.5494038202640176</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.5820925638243641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="8">
+        <v>0.6112892168244061</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.5646514270743782</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.5913151441128658</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.5953616613485518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
-        <v>0.5437855565810799</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.5180171322302733</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.5163849560909183</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.5165915873381552</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8">
+        <v>0.6006682541692221</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.5750002173910344</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.5782358956330221</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.4957407254217222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8">
+        <v>0.610107881284332</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.5758498415181018</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.5995097709896021</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.5881707860520501</v>
       </c>
     </row>
   </sheetData>
@@ -2418,13 +2637,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
     <col min="2" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2510,13 +2729,13 @@
         <v>0.5168035451300899</v>
       </c>
       <c r="L2" s="9">
-        <v>0.4939996815751416</v>
+        <v>0.5641493412585743</v>
       </c>
       <c r="M2" s="9">
         <v>0.5493503248375812</v>
       </c>
       <c r="N2" s="9">
-        <v>0.5392149058214256</v>
+        <v>0.5301464312091742</v>
       </c>
       <c r="O2" s="9">
         <v>0.5</v>
@@ -2557,13 +2776,13 @@
         <v>0.5372463233165422</v>
       </c>
       <c r="L3" s="9">
-        <v>0.4780394157836836</v>
+        <v>0.6680761826182618</v>
       </c>
       <c r="M3" s="9">
         <v>0.5738557408372416</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5940177899368884</v>
+        <v>0.5831741068843727</v>
       </c>
       <c r="O3" s="9">
         <v>0.5</v>
@@ -2604,13 +2823,13 @@
         <v>0.5703631885978908</v>
       </c>
       <c r="L4" s="9">
-        <v>0.4250672950263044</v>
+        <v>0.7642383184834278</v>
       </c>
       <c r="M4" s="9">
         <v>0.601408900125181</v>
       </c>
       <c r="N4" s="9">
-        <v>0.7341335100594815</v>
+        <v>0.7147345425983653</v>
       </c>
       <c r="O4" s="9">
         <v>0.5</v>
@@ -2651,13 +2870,13 @@
         <v>0.5621487047898338</v>
       </c>
       <c r="L5" s="9">
-        <v>0.4340786901270772</v>
+        <v>0.6178977272727273</v>
       </c>
       <c r="M5" s="9">
         <v>0.6008369990224829</v>
       </c>
       <c r="N5" s="9">
-        <v>0.6884775171065494</v>
+        <v>0.640533357771261</v>
       </c>
       <c r="O5" s="9">
         <v>0.5</v>
@@ -2698,13 +2917,13 @@
         <v>0.4730462361244986</v>
       </c>
       <c r="L6" s="9">
-        <v>0.5066664593762632</v>
+        <v>0.6284168195433393</v>
       </c>
       <c r="M6" s="9">
         <v>0.512352849724822</v>
       </c>
       <c r="N6" s="9">
-        <v>0.5215204751096048</v>
+        <v>0.6252496294684038</v>
       </c>
       <c r="O6" s="9">
         <v>0.5</v>
@@ -2745,13 +2964,13 @@
         <v>0.5404635404635405</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5175945175945176</v>
+        <v>0.5941325941325941</v>
       </c>
       <c r="M7" s="9">
         <v>0.5071610071610072</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5386925386925387</v>
+        <v>0.5845845845845846</v>
       </c>
       <c r="O7" s="9">
         <v>0.5</v>
@@ -2792,13 +3011,13 @@
         <v>0.5012610024742052</v>
       </c>
       <c r="L8" s="9">
-        <v>0.439908148640477</v>
+        <v>0.5387295438008679</v>
       </c>
       <c r="M8" s="9">
         <v>0.4847636454959374</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5541172641253901</v>
+        <v>0.6167284648926137</v>
       </c>
       <c r="O8" s="9">
         <v>0.5</v>
@@ -2839,13 +3058,13 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="L9" s="9">
-        <v>0.4591836734693878</v>
+        <v>0.6734693877551021</v>
       </c>
       <c r="M9" s="9">
         <v>0.5493197278911565</v>
       </c>
       <c r="N9" s="9">
-        <v>0.6258503401360545</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="O9" s="9">
         <v>0.5</v>
@@ -2886,13 +3105,13 @@
         <v>0.7556547619047619</v>
       </c>
       <c r="L10" s="9">
-        <v>0.487797619047619</v>
+        <v>0.6151041666666667</v>
       </c>
       <c r="M10" s="9">
         <v>0.5570684523809524</v>
       </c>
       <c r="N10" s="9">
-        <v>0.6139880952380953</v>
+        <v>0.5984375</v>
       </c>
       <c r="O10" s="9">
         <v>0.5</v>
@@ -2906,40 +3125,40 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.4951149220806945</v>
+        <v>0.5830756545042259</v>
       </c>
       <c r="D11" s="9">
-        <v>0.5427518442088285</v>
+        <v>0.7100525904512616</v>
       </c>
       <c r="E11" s="9">
-        <v>0.4499594787985167</v>
+        <v>0.5600020134903856</v>
       </c>
       <c r="F11" s="9">
-        <v>0.4887202811578389</v>
+        <v>0.649228401720096</v>
       </c>
       <c r="G11" s="9">
-        <v>0.4571060350893839</v>
+        <v>0.5477101340888717</v>
       </c>
       <c r="H11" s="9">
-        <v>0.4491595309819176</v>
+        <v>0.6359058070021526</v>
       </c>
       <c r="I11" s="9">
-        <v>0.3833716802264444</v>
+        <v>0.5499297675377409</v>
       </c>
       <c r="J11" s="9">
-        <v>0.5726147837156162</v>
+        <v>0.5465020398575215</v>
       </c>
       <c r="K11" s="9">
-        <v>0.5430141448642836</v>
+        <v>0.54610892982986</v>
       </c>
       <c r="L11" s="8">
-        <v>0.6995491275093495</v>
+        <v>0.7507370813018653</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5409382733619552</v>
+        <v>0.5587987132837631</v>
       </c>
       <c r="N11" s="9">
-        <v>0.6020094562647753</v>
+        <v>0.6202101700440571</v>
       </c>
       <c r="O11" s="9">
         <v>0.5</v>
@@ -2980,13 +3199,13 @@
         <v>0.5008972392638037</v>
       </c>
       <c r="L12" s="9">
-        <v>0.4752592024539878</v>
+        <v>0.5940479294478528</v>
       </c>
       <c r="M12" s="8">
         <v>0.7285118865030675</v>
       </c>
       <c r="N12" s="9">
-        <v>0.5421108128834355</v>
+        <v>0.5342756901840491</v>
       </c>
       <c r="O12" s="9">
         <v>0.5</v>
@@ -3000,358 +3219,466 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.5695427722492883</v>
+        <v>0.564539538561447</v>
       </c>
       <c r="D13" s="9">
-        <v>0.775714392424079</v>
+        <v>0.6658678129472178</v>
       </c>
       <c r="E13" s="9">
-        <v>0.6408035721696117</v>
+        <v>0.6448726293699566</v>
       </c>
       <c r="F13" s="9">
-        <v>0.6953903740652518</v>
+        <v>0.6911506500066144</v>
       </c>
       <c r="G13" s="9">
-        <v>0.5140762073916688</v>
+        <v>0.5719592197515424</v>
       </c>
       <c r="H13" s="9">
-        <v>0.581515018217733</v>
+        <v>0.6498446387983596</v>
       </c>
       <c r="I13" s="9">
-        <v>0.5560890386514727</v>
+        <v>0.6568633272401476</v>
       </c>
       <c r="J13" s="9">
-        <v>0.5948816054844092</v>
+        <v>0.606460004449629</v>
       </c>
       <c r="K13" s="9">
-        <v>0.4920447849145551</v>
+        <v>0.5003356012410857</v>
       </c>
       <c r="L13" s="9">
-        <v>0.4993318781279308</v>
+        <v>0.6499043931066828</v>
       </c>
       <c r="M13" s="9">
-        <v>0.5112584760181597</v>
+        <v>0.4899969784613905</v>
       </c>
       <c r="N13" s="8">
-        <v>0.794537999950202</v>
+        <v>0.9125080424037617</v>
       </c>
       <c r="O13" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9">
+        <v>0.5566262875587222</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.662881566736888</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.625901259158533</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.6312380830107363</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.5429106400368187</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.6187791704522364</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.5605038563913927</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.5829529016476575</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.5281726182752062</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.6280151276441907</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.5440830308383197</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.6104310131185045</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9">
         <v>0.5618934679003533</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>0.728813459290369</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>0.7098817067202976</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>0.6493415931580999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>0.5556368137273284</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>0.6579699559490451</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>0.5722347430260515</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>0.6036434735992782</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>0.5466404404585892</v>
       </c>
-      <c r="L19" s="9">
-        <v>0.4577962706280517</v>
-      </c>
-      <c r="M19" s="9">
+      <c r="L20" s="9">
+        <v>0.6535903924082478</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.5813629912056216</v>
       </c>
-      <c r="N19" s="9">
-        <v>0.6389609307310862</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9">
-        <v>0.5386888277689064</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.6132050623430821</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.5665416203889917</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.6024671986466253</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.5304501772232399</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.6066345657101126</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.5248553157396166</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.563759624847069</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.5049235930207482</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0.4880563752037526</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.5014258341272556</v>
-      </c>
       <c r="N20" s="9">
-        <v>0.5381100926425112</v>
+        <v>0.6171471096157933</v>
       </c>
       <c r="O20" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14"/>
+      <c r="A21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="9">
-        <v>0.5500404332105716</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.5927051215389972</v>
+        <v>0.5386888277689064</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.6132050623430821</v>
       </c>
       <c r="E21" s="9">
-        <v>0.5771442310280769</v>
+        <v>0.5665416203889917</v>
       </c>
       <c r="F21" s="9">
-        <v>0.5856002127668986</v>
+        <v>0.6024671986466253</v>
       </c>
       <c r="G21" s="9">
-        <v>0.5030241488846698</v>
+        <v>0.5304501772232399</v>
       </c>
       <c r="H21" s="9">
-        <v>0.5256445885585984</v>
+        <v>0.6066345657101126</v>
       </c>
       <c r="I21" s="9">
-        <v>0.4862372720936221</v>
+        <v>0.5248553157396166</v>
       </c>
       <c r="J21" s="9">
-        <v>0.5830335823339986</v>
+        <v>0.563759624847069</v>
       </c>
       <c r="K21" s="9">
-        <v>0.5521193173301009</v>
+        <v>0.5049235930207482</v>
       </c>
       <c r="L21" s="9">
-        <v>0.4734906462585034</v>
+        <v>0.5870929858256004</v>
       </c>
       <c r="M21" s="9">
-        <v>0.5491088178780213</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0.6139492972129751</v>
+        <v>0.5014258341272556</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.6088542263152007</v>
       </c>
       <c r="O21" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="9">
-        <v>0.5440317388853804</v>
+        <v>0.5793606773517488</v>
       </c>
       <c r="D22" s="8">
-        <v>0.715036068911426</v>
+        <v>0.6484720369531416</v>
       </c>
       <c r="E22" s="9">
-        <v>0.6050497922197752</v>
+        <v>0.6138250759253666</v>
       </c>
       <c r="F22" s="9">
-        <v>0.6375617514498039</v>
+        <v>0.6391029196209843</v>
       </c>
       <c r="G22" s="9">
-        <v>0.5155049365179203</v>
+        <v>0.5332255152178325</v>
       </c>
       <c r="H22" s="9">
-        <v>0.5647061287407684</v>
+        <v>0.58789334723201</v>
       </c>
       <c r="I22" s="9">
-        <v>0.5504243122705217</v>
+        <v>0.5417566345307209</v>
       </c>
       <c r="J22" s="9">
-        <v>0.5775481647053948</v>
+        <v>0.5699772104049512</v>
       </c>
       <c r="K22" s="9">
-        <v>0.4964710120891794</v>
+        <v>0.5536667098128891</v>
       </c>
       <c r="L22" s="9">
-        <v>0.4872955402909593</v>
+        <v>0.6442867772108845</v>
       </c>
       <c r="M22" s="9">
-        <v>0.5112584760181597</v>
+        <v>0.5550622978519573</v>
       </c>
       <c r="N22" s="9">
-        <v>0.5421108128834355</v>
+        <v>0.6284381122369079</v>
       </c>
       <c r="O22" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9">
+        <v>0.5415301220414597</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.6601127791729954</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.6070843208199477</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.6354418894204852</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.544446442697857</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.5988709390310817</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.600811456564859</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.5833373641880046</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.5006164202524447</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.6219761612772678</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.4899969784613905</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.5342756901840491</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9">
+        <v>0.555368273765617</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.662650834439897</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.624333180963651</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.6315884002115487</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.5409397372165645</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.6128422019805624</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.5599145374653119</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.5801794182598258</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.5264617908861678</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.6267365791805002</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.5319620254115562</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.5971787845879878</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8">
+      <c r="B30" s="13"/>
+      <c r="C30" s="8">
         <v>0.6624825567672801</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>0.5952805042341417</v>
       </c>
-      <c r="E28" s="9">
-        <v>0.5360267282286397</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.610161960968354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="10" t="s">
+      <c r="E30" s="9">
+        <v>0.601291435488705</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.5992550504107075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8">
         <v>0.5802256772869013</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <v>0.5539800195576564</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.5189131976905232</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.5197679633848834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11" t="s">
+      <c r="E31" s="9">
+        <v>0.5519254012311392</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.5551400302212282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9">
-        <v>0.5763724996361361</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.5049686698456302</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.5362145153075343</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.5815290575454982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="8">
+        <v>0.6201901774628102</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.5542918323268545</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.5893102324762416</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.5917502050444325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
-        <v>0.6254198378665964</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.5435451258430701</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.5204382390285113</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.5266846444507975</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8">
+        <v>0.611042277863722</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.5813762794312659</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.5686433152392391</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.5121363343227198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8">
+        <v>0.6038193775378112</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.5769828719974207</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.573953383986361</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.5820484285587894</v>
       </c>
     </row>
   </sheetData>
@@ -3361,13 +3688,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
     <col min="2" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3453,13 +3780,13 @@
         <v>0.4884418709779182</v>
       </c>
       <c r="L2" s="9">
-        <v>0.4849251204011171</v>
+        <v>0.5027758323429803</v>
       </c>
       <c r="M2" s="9">
         <v>0.5432955256233967</v>
       </c>
       <c r="N2" s="9">
-        <v>0.5381304817717157</v>
+        <v>0.5291997212692967</v>
       </c>
       <c r="O2" s="9">
         <v>0.4436315264383106</v>
@@ -3500,13 +3827,13 @@
         <v>0.424638518855719</v>
       </c>
       <c r="L3" s="9">
-        <v>0.4623794345979746</v>
+        <v>0.6556178547749867</v>
       </c>
       <c r="M3" s="9">
         <v>0.521347302016447</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5699860102013203</v>
+        <v>0.5353468883457334</v>
       </c>
       <c r="O3" s="9">
         <v>0.3336992316136114</v>
@@ -3547,16 +3874,16 @@
         <v>0.5800713275974654</v>
       </c>
       <c r="L4" s="9">
-        <v>0.4233222246310684</v>
+        <v>0.6206690539723331</v>
       </c>
       <c r="M4" s="9">
         <v>0.5715879980723869</v>
       </c>
       <c r="N4" s="9">
-        <v>0.6766226453726454</v>
+        <v>0.7295776622875823</v>
       </c>
       <c r="O4" s="9">
-        <v>0.4016563146997929</v>
+        <v>0.4672008012018027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3594,16 +3921,16 @@
         <v>0.5644950838872735</v>
       </c>
       <c r="L5" s="9">
-        <v>0.4366741862713503</v>
+        <v>0.5098906100157665</v>
       </c>
       <c r="M5" s="9">
         <v>0.604443244616655</v>
       </c>
       <c r="N5" s="9">
-        <v>0.6273969123596321</v>
+        <v>0.6335630172445222</v>
       </c>
       <c r="O5" s="9">
-        <v>0.4672008012018027</v>
+        <v>0.4383033419023136</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3641,16 +3968,16 @@
         <v>0.4603131655517892</v>
       </c>
       <c r="L6" s="9">
-        <v>0.4561841017142525</v>
+        <v>0.5903734094235649</v>
       </c>
       <c r="M6" s="9">
         <v>0.5004028402334685</v>
       </c>
       <c r="N6" s="9">
-        <v>0.4402233378513725</v>
+        <v>0.6136761556623601</v>
       </c>
       <c r="O6" s="9">
-        <v>0.4383033419023136</v>
+        <v>0.3767804657472304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3688,16 +4015,16 @@
         <v>0.4802790633418527</v>
       </c>
       <c r="L7" s="9">
-        <v>0.4958033356246156</v>
+        <v>0.584965847231372</v>
       </c>
       <c r="M7" s="9">
         <v>0.447491916295528</v>
       </c>
       <c r="N7" s="9">
-        <v>0.52796875</v>
+        <v>0.5801232933964893</v>
       </c>
       <c r="O7" s="9">
-        <v>0.3767804657472304</v>
+        <v>0.3394406943105111</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3735,16 +4062,16 @@
         <v>0.301932009655593</v>
       </c>
       <c r="L8" s="9">
-        <v>0.4184930450164742</v>
+        <v>0.5130386273970089</v>
       </c>
       <c r="M8" s="9">
         <v>0.4015198306246178</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5493386654817448</v>
+        <v>0.614549392451782</v>
       </c>
       <c r="O8" s="9">
-        <v>0.3394406943105111</v>
+        <v>0.3719185423365488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3782,16 +4109,16 @@
         <v>0.5262604145932266</v>
       </c>
       <c r="L9" s="9">
-        <v>0.4451409390544748</v>
+        <v>0.6135211267605634</v>
       </c>
       <c r="M9" s="9">
         <v>0.5095033378770403</v>
       </c>
       <c r="N9" s="9">
-        <v>0.5069182389937107</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="O9" s="9">
-        <v>0.3719185423365488</v>
+        <v>0.4271284271284271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3829,16 +4156,16 @@
         <v>0.7130940343781598</v>
       </c>
       <c r="L10" s="9">
-        <v>0.4563538611925708</v>
+        <v>0.5353849117484167</v>
       </c>
       <c r="M10" s="9">
         <v>0.5656333716035209</v>
       </c>
       <c r="N10" s="9">
-        <v>0.5806773200410497</v>
+        <v>0.577123695976155</v>
       </c>
       <c r="O10" s="9">
-        <v>0.4271284271284271</v>
+        <v>0.4582338902147972</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3849,43 +4176,43 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.4950840145322434</v>
+        <v>0.5829276629560938</v>
       </c>
       <c r="D11" s="9">
-        <v>0.5164668555917252</v>
+        <v>0.6989061681263566</v>
       </c>
       <c r="E11" s="9">
-        <v>0.3099356244451651</v>
+        <v>0.4720304086157744</v>
       </c>
       <c r="F11" s="9">
-        <v>0.4658246674947822</v>
+        <v>0.64099068233861</v>
       </c>
       <c r="G11" s="9">
-        <v>0.3068139529031908</v>
+        <v>0.4435060950537389</v>
       </c>
       <c r="H11" s="9">
-        <v>0.3987639612183083</v>
+        <v>0.6033665553009047</v>
       </c>
       <c r="I11" s="9">
-        <v>0.2522404371584699</v>
+        <v>0.4458492272850917</v>
       </c>
       <c r="J11" s="9">
-        <v>0.5690198851055641</v>
+        <v>0.5440703719908108</v>
       </c>
       <c r="K11" s="9">
-        <v>0.5380269534167714</v>
+        <v>0.5233977724250098</v>
       </c>
       <c r="L11" s="8">
-        <v>0.6994994504814254</v>
+        <v>0.7467689980075931</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5267185065020756</v>
+        <v>0.5265733414485697</v>
       </c>
       <c r="N11" s="9">
-        <v>0.569240428080207</v>
+        <v>0.6193391488362838</v>
       </c>
       <c r="O11" s="9">
-        <v>0.4582338902147972</v>
+        <v>0.3679180887372014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3923,16 +4250,16 @@
         <v>0.4575563205522897</v>
       </c>
       <c r="L12" s="9">
-        <v>0.4732452456853908</v>
+        <v>0.5692436357058248</v>
       </c>
       <c r="M12" s="8">
         <v>0.7304194179433181</v>
       </c>
       <c r="N12" s="9">
-        <v>0.5200272148411028</v>
+        <v>0.4357175555975352</v>
       </c>
       <c r="O12" s="9">
-        <v>0.4794377928162415</v>
+        <v>0.4543189818575684</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3943,358 +4270,466 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.5143216897821956</v>
+        <v>0.5627266927202736</v>
       </c>
       <c r="D13" s="9">
-        <v>0.559846061111884</v>
+        <v>0.6680747956224634</v>
       </c>
       <c r="E13" s="9">
-        <v>0.3433998261515444</v>
+        <v>0.5578392934804595</v>
       </c>
       <c r="F13" s="9">
-        <v>0.5552305343154175</v>
+        <v>0.6968244794160874</v>
       </c>
       <c r="G13" s="9">
-        <v>0.2574301430905008</v>
+        <v>0.4617065912467584</v>
       </c>
       <c r="H13" s="9">
-        <v>0.3978886935548251</v>
+        <v>0.6036714998214026</v>
       </c>
       <c r="I13" s="9">
-        <v>0.3521639829462024</v>
+        <v>0.5802980972680924</v>
       </c>
       <c r="J13" s="9">
-        <v>0.549503128450497</v>
+        <v>0.6100628296268495</v>
       </c>
       <c r="K13" s="9">
-        <v>0.4857475276323444</v>
+        <v>0.4193533060856753</v>
       </c>
       <c r="L13" s="9">
-        <v>0.4317974867965763</v>
+        <v>0.6093935565129867</v>
       </c>
       <c r="M13" s="9">
-        <v>0.5017951072889705</v>
+        <v>0.444360424961404</v>
       </c>
       <c r="N13" s="8">
-        <v>0.7517485065487902</v>
+        <v>0.9166406131210783</v>
       </c>
       <c r="O13" s="9">
-        <v>0.4061794827286929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+        <v>0.4053925077547125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9">
+        <v>0.5340340760674085</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.5767628906018184</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.5471538260702725</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.5859886562752664</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.481291984177636</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.5789548543592917</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.3994592119919234</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.5659605604509607</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.4751580775930739</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.5731704059896185</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.5123781030339122</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.5890297856526229</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.4069972082702529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9">
         <v>0.5341460151152404</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>0.5956924453789244</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>0.6899712155506915</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>0.6409948322172746</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>0.518206410702334</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>0.6375938390194908</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>0.4021397559377772</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>0.5803403823075837</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>0.514411700329594</v>
       </c>
-      <c r="L19" s="9">
-        <v>0.4518252414753776</v>
-      </c>
-      <c r="M19" s="9">
+      <c r="L20" s="9">
+        <v>0.5722383377765166</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.5601685175822213</v>
       </c>
-      <c r="N19" s="9">
-        <v>0.6030340124263284</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0.4115469684883794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
+      <c r="N20" s="9">
+        <v>0.6069218222867836</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.4207087252890096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9">
+      <c r="B21" s="13"/>
+      <c r="C21" s="9">
         <v>0.491461498300661</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>0.5798618543012961</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>0.4812121028144355</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>0.565162169859835</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>0.5225220718466668</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="9">
         <v>0.5937865407891285</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>0.4235036647809456</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>0.5276507489999953</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>0.4141747461830783</v>
       </c>
-      <c r="L20" s="9">
-        <v>0.4568268274517808</v>
-      </c>
-      <c r="M20" s="9">
+      <c r="L21" s="9">
+        <v>0.5627926280173153</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.4498048623845381</v>
       </c>
-      <c r="N20" s="9">
-        <v>0.5058435844443725</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0.3848415006533517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="11" t="s">
+      <c r="N21" s="8">
+        <v>0.6027829471702105</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.3627132341314301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9">
-        <v>0.5473454035421349</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.470007716593255</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.4595881396504555</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.4793373185353029</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.4236693960043523</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.4341032848723653</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.2777054905806081</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.5912291562928687</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.532143684004999</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.4507474001235228</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.5339517386608789</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0.5522786623716558</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0.4190936198932577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="9">
+        <v>0.5766266196834184</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.5308208207714654</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.5136197343739918</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.5377259901499122</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.4692334433878683</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.5023041495665641</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.3422417539561486</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.578754399735492</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.5248290935091182</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.5744530192544901</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.5339033503097103</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.6025246519745167</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.4177601353601419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9">
-        <v>0.5096337172527279</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.5585188503771829</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.3749217306133626</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.5363161486230976</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.2821826305657317</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.4589298526648594</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.3418128012039109</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.5515919440414545</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0.471651924092317</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.4525213662409835</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.5017951072889705</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.5200272148411028</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0.4428086377724672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9">
+        <v>0.5338362187217669</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.6126332176324726</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.4821414642778202</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.6071131211734325</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.3843208546438606</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.5618212557981481</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.455879858364856</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.5818717946296308</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.4384548133189825</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.5893185961094057</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.444360424961404</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.4357175555975352</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.4298557448061405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9">
+        <v>0.5340175879552718</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.5797520845210397</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.5417361292542348</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.5877490283501137</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.4735706951451824</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.5738764462933329</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.4059412582599319</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.5671543314181755</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.4729675883351933</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.574700645289432</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.4970592888094684</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.5619867442572615</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.4077594598966805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8">
+      <c r="B30" s="13"/>
+      <c r="C30" s="8">
         <v>0.6152011270655328</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>0.5193133352198673</v>
       </c>
-      <c r="E28" s="9">
-        <v>0.5155257747041851</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.5816012650042748</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="10" t="s">
+      <c r="E30" s="9">
+        <v>0.5556634734712315</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.5835451699345025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8">
         <v>0.529424406319057</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <v>0.5132707591389136</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.4662174408782848</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.4778242234144553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11" t="s">
+      <c r="E31" s="9">
+        <v>0.5015393744001296</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.5262939047773743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9">
-        <v>0.4890696445802871</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.3784927238191085</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.5247067468071301</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.5431152005162674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="9">
+        <v>0.5396982912446969</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.4379264489701937</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.5593455041663667</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.5682140011421135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="9">
-        <v>0.4948476117165928</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.3609750948115007</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.491921744791585</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.5109111610650366</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8">
+        <v>0.5589310054513731</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.4673406562689549</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.536548401352673</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.4400389902794696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="9">
+        <v>0.542684567671709</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.474860146819672</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.5312504164080113</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.5593510252846634</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_sentiment_postprocessed.xlsx
+++ b/results/results_sentiment_postprocessed.xlsx
@@ -630,7 +630,7 @@
         <v>0.5523012552301255</v>
       </c>
       <c r="M2" s="9">
-        <v>0.6778242677824268</v>
+        <v>0.4614465032875075</v>
       </c>
       <c r="N2" s="9">
         <v>0.7489539748953975</v>
@@ -677,7 +677,7 @@
         <v>0.6677649643053267</v>
       </c>
       <c r="M3" s="9">
-        <v>0.5733113673805601</v>
+        <v>0.6123009335529929</v>
       </c>
       <c r="N3" s="9">
         <v>0.5826468973091707</v>
@@ -724,7 +724,7 @@
         <v>0.7246240601503759</v>
       </c>
       <c r="M4" s="9">
-        <v>0.7612781954887218</v>
+        <v>0.5996240601503759</v>
       </c>
       <c r="N4" s="9">
         <v>0.8909774436090225</v>
@@ -771,7 +771,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="M5" s="9">
-        <v>0.7391304347826086</v>
+        <v>0.5491990846681922</v>
       </c>
       <c r="N5" s="9">
         <v>0.7368421052631579</v>
@@ -818,7 +818,7 @@
         <v>0.5912395492548165</v>
       </c>
       <c r="M6" s="9">
-        <v>0.5654307524536533</v>
+        <v>0.4218466012359142</v>
       </c>
       <c r="N6" s="9">
         <v>0.6168665939658307</v>
@@ -865,7 +865,7 @@
         <v>0.5906432748538012</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5160818713450293</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="N7" s="9">
         <v>0.5877192982456141</v>
@@ -912,7 +912,7 @@
         <v>0.5136986301369864</v>
       </c>
       <c r="M8" s="9">
-        <v>0.4289383561643836</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="N8" s="9">
         <v>0.6228595890410958</v>
@@ -959,7 +959,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="M9" s="9">
-        <v>0.5433673469387755</v>
+        <v>0.5255102040816326</v>
       </c>
       <c r="N9" s="9">
         <v>0.6428571428571429</v>
@@ -1006,7 +1006,7 @@
         <v>0.6255506607929515</v>
       </c>
       <c r="M10" s="9">
-        <v>0.8237885462555066</v>
+        <v>0.7136563876651982</v>
       </c>
       <c r="N10" s="9">
         <v>0.73568281938326</v>
@@ -1053,7 +1053,7 @@
         <v>0.7505399568034558</v>
       </c>
       <c r="M11" s="9">
-        <v>0.6144708423326134</v>
+        <v>0.4697624190064795</v>
       </c>
       <c r="N11" s="9">
         <v>0.6274298056155507</v>
@@ -1100,7 +1100,7 @@
         <v>0.7037383177570093</v>
       </c>
       <c r="M12" s="8">
-        <v>0.8496365524402908</v>
+        <v>0.8568016614745587</v>
       </c>
       <c r="N12" s="9">
         <v>0.4749740394600208</v>
@@ -1147,7 +1147,7 @@
         <v>0.6187021362353889</v>
       </c>
       <c r="M13" s="9">
-        <v>0.6444981862152358</v>
+        <v>0.5368802902055623</v>
       </c>
       <c r="N13" s="8">
         <v>0.9286577992744861</v>
@@ -1192,7 +1192,7 @@
         <v>0.6143123437316009</v>
       </c>
       <c r="M15" s="9">
-        <v>0.6261927424672286</v>
+        <v>0.5493376242449561</v>
       </c>
       <c r="N15" s="9">
         <v>0.6607099736041149</v>
@@ -1282,7 +1282,7 @@
         <v>0.6177515172898781</v>
       </c>
       <c r="M20" s="9">
-        <v>0.6878860663585793</v>
+        <v>0.5556426454147672</v>
       </c>
       <c r="N20" s="9">
         <v>0.7398551052691872</v>
@@ -1327,7 +1327,7 @@
         <v>0.565193818081868</v>
       </c>
       <c r="M21" s="9">
-        <v>0.5034836599876887</v>
+        <v>0.5247779946921926</v>
       </c>
       <c r="N21" s="9">
         <v>0.6091484937508468</v>
@@ -1372,7 +1372,7 @@
         <v>0.6342039018250472</v>
       </c>
       <c r="M22" s="9">
-        <v>0.6605422451756318</v>
+        <v>0.5696430035844368</v>
       </c>
       <c r="N22" s="9">
         <v>0.6686565892853178</v>
@@ -1417,7 +1417,7 @@
         <v>0.6612202269961991</v>
       </c>
       <c r="M23" s="9">
-        <v>0.6444981862152358</v>
+        <v>0.5368802902055623</v>
       </c>
       <c r="N23" s="9">
         <v>0.4749740394600208</v>
@@ -1462,7 +1462,7 @@
         <v>0.6195923660482481</v>
       </c>
       <c r="M25" s="9">
-        <v>0.6241025394342838</v>
+        <v>0.5467359834742397</v>
       </c>
       <c r="N25" s="9">
         <v>0.6231585569413431</v>
@@ -1504,7 +1504,7 @@
         <v>0.7063653680412499</v>
       </c>
       <c r="F30" s="9">
-        <v>0.7138705858138832</v>
+        <v>0.6477488753419771</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1522,7 +1522,7 @@
         <v>0.5394101933433784</v>
       </c>
       <c r="F31" s="9">
-        <v>0.5563160768692678</v>
+        <v>0.5669632442215197</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1536,11 +1536,11 @@
       <c r="D32" s="9">
         <v>0.499134953677319</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>0.641502639152349</v>
       </c>
-      <c r="F32" s="8">
-        <v>0.6645994172304748</v>
+      <c r="F32" s="9">
+        <v>0.6191497964348773</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1558,7 +1558,7 @@
         <v>0.7121795427178017</v>
       </c>
       <c r="F33" s="9">
-        <v>0.5597361128376284</v>
+        <v>0.5059271648327915</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1576,7 +1576,7 @@
         <v>0.6526517013674766</v>
       </c>
       <c r="F35" s="9">
-        <v>0.6449286933045418</v>
+        <v>0.6112873053327914</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1681,7 @@
         <v>0.5415139052263731</v>
       </c>
       <c r="M2" s="9">
-        <v>0.5420116260245246</v>
+        <v>0.54570153832858</v>
       </c>
       <c r="N2" s="9">
         <v>0.5481625933541061</v>
@@ -1728,7 +1728,7 @@
         <v>0.6959676126342793</v>
       </c>
       <c r="M3" s="9">
-        <v>0.6310486977962706</v>
+        <v>0.6138363404454956</v>
       </c>
       <c r="N3" s="9">
         <v>0.6408034241092578</v>
@@ -1775,7 +1775,7 @@
         <v>0.624845373577437</v>
       </c>
       <c r="M4" s="9">
-        <v>0.5656575288041319</v>
+        <v>0.5807045820861156</v>
       </c>
       <c r="N4" s="9">
         <v>0.7481069737103315</v>
@@ -1822,7 +1822,7 @@
         <v>0.5840190700104493</v>
       </c>
       <c r="M5" s="9">
-        <v>0.6093553302855629</v>
+        <v>0.56019509125236</v>
       </c>
       <c r="N5" s="9">
         <v>0.6286781159095994</v>
@@ -1869,7 +1869,7 @@
         <v>0.6350509246071655</v>
       </c>
       <c r="M6" s="9">
-        <v>0.5160115499254844</v>
+        <v>0.485006341685441</v>
       </c>
       <c r="N6" s="9">
         <v>0.6198502424881566</v>
@@ -1916,7 +1916,7 @@
         <v>0.6009005621635501</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5132562559391827</v>
+        <v>0.5487488556606652</v>
       </c>
       <c r="N7" s="9">
         <v>0.5898160345219169</v>
@@ -1963,7 +1963,7 @@
         <v>0.5400789715637987</v>
       </c>
       <c r="M8" s="9">
-        <v>0.4764577684147344</v>
+        <v>0.6329818797262812</v>
       </c>
       <c r="N8" s="9">
         <v>0.6141441120607787</v>
@@ -2010,7 +2010,7 @@
         <v>0.6304415909802693</v>
       </c>
       <c r="M9" s="9">
-        <v>0.5370138834622697</v>
+        <v>0.551557239057239</v>
       </c>
       <c r="N9" s="9">
         <v>0.6256410256410256</v>
@@ -2057,7 +2057,7 @@
         <v>0.5622785829307568</v>
       </c>
       <c r="M10" s="9">
-        <v>0.6074229691876751</v>
+        <v>0.5835686053077358</v>
       </c>
       <c r="N10" s="9">
         <v>0.5717306441119063</v>
@@ -2104,7 +2104,7 @@
         <v>0.7455492957746479</v>
       </c>
       <c r="M11" s="9">
-        <v>0.6114594692838967</v>
+        <v>0.6192671394799054</v>
       </c>
       <c r="N11" s="9">
         <v>0.618901976404537</v>
@@ -2151,7 +2151,7 @@
         <v>0.5667899878492364</v>
       </c>
       <c r="M12" s="8">
-        <v>0.7323922670754557</v>
+        <v>0.7455789338049237</v>
       </c>
       <c r="N12" s="9">
         <v>0.5196306690911008</v>
@@ -2198,7 +2198,7 @@
         <v>0.6300606871617893</v>
       </c>
       <c r="M13" s="9">
-        <v>0.4718507817523435</v>
+        <v>0.6150117178484136</v>
       </c>
       <c r="N13" s="8">
         <v>0.9211556022806627</v>
@@ -2243,7 +2243,7 @@
         <v>0.6010861153368278</v>
       </c>
       <c r="M15" s="9">
-        <v>0.5528678055341888</v>
+        <v>0.5760526664434757</v>
       </c>
       <c r="N15" s="9">
         <v>0.6114059828547925</v>
@@ -2333,7 +2333,7 @@
         <v>0.6115864903621346</v>
       </c>
       <c r="M20" s="9">
-        <v>0.5870182957276224</v>
+        <v>0.5751093880281378</v>
       </c>
       <c r="N20" s="9">
         <v>0.6414377767708237</v>
@@ -2378,7 +2378,7 @@
         <v>0.5920101527781715</v>
       </c>
       <c r="M21" s="9">
-        <v>0.5019085247598004</v>
+        <v>0.5555790256907959</v>
       </c>
       <c r="N21" s="9">
         <v>0.6079367963569507</v>
@@ -2423,7 +2423,7 @@
         <v>0.596360086955513</v>
       </c>
       <c r="M22" s="9">
-        <v>0.5852987739779473</v>
+        <v>0.5847976612816267</v>
       </c>
       <c r="N22" s="9">
         <v>0.6054245487191564</v>
@@ -2468,7 +2468,7 @@
         <v>0.5984253375055129</v>
       </c>
       <c r="M23" s="9">
-        <v>0.4718507817523435</v>
+        <v>0.6150117178484136</v>
       </c>
       <c r="N23" s="9">
         <v>0.5196306690911008</v>
@@ -2513,7 +2513,7 @@
         <v>0.599595516900333</v>
       </c>
       <c r="M25" s="9">
-        <v>0.5365190940544284</v>
+        <v>0.5826244482122435</v>
       </c>
       <c r="N25" s="9">
         <v>0.5936074477345079</v>
@@ -2555,7 +2555,7 @@
         <v>0.6536013504626091</v>
       </c>
       <c r="F30" s="9">
-        <v>0.6142280362492231</v>
+        <v>0.6082735823994807</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2573,7 +2573,7 @@
         <v>0.5666920668731749</v>
       </c>
       <c r="F31" s="9">
-        <v>0.5549226605583756</v>
+        <v>0.5817579110238733</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2591,7 +2591,7 @@
         <v>0.5913151441128658</v>
       </c>
       <c r="F32" s="9">
-        <v>0.5953616613485518</v>
+        <v>0.5951111050003915</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2609,7 +2609,7 @@
         <v>0.5782358956330221</v>
       </c>
       <c r="F33" s="9">
-        <v>0.4957407254217222</v>
+        <v>0.5673211934697572</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2627,7 +2627,7 @@
         <v>0.5995097709896021</v>
       </c>
       <c r="F35" s="9">
-        <v>0.5881707860520501</v>
+        <v>0.5950475328079152</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2732,7 @@
         <v>0.5641493412585743</v>
       </c>
       <c r="M2" s="9">
-        <v>0.5493503248375812</v>
+        <v>0.5654838509948565</v>
       </c>
       <c r="N2" s="9">
         <v>0.5301464312091742</v>
@@ -2779,7 +2779,7 @@
         <v>0.6680761826182618</v>
       </c>
       <c r="M3" s="9">
-        <v>0.5738557408372416</v>
+        <v>0.6123939696601239</v>
       </c>
       <c r="N3" s="9">
         <v>0.5831741068843727</v>
@@ -2826,7 +2826,7 @@
         <v>0.7642383184834278</v>
       </c>
       <c r="M4" s="9">
-        <v>0.601408900125181</v>
+        <v>0.6864010865385402</v>
       </c>
       <c r="N4" s="9">
         <v>0.7147345425983653</v>
@@ -2873,7 +2873,7 @@
         <v>0.6178977272727273</v>
       </c>
       <c r="M5" s="9">
-        <v>0.6008369990224829</v>
+        <v>0.5876557917888563</v>
       </c>
       <c r="N5" s="9">
         <v>0.640533357771261</v>
@@ -2920,7 +2920,7 @@
         <v>0.6284168195433393</v>
       </c>
       <c r="M6" s="9">
-        <v>0.512352849724822</v>
+        <v>0.4912958759574226</v>
       </c>
       <c r="N6" s="9">
         <v>0.6252496294684038</v>
@@ -2967,7 +2967,7 @@
         <v>0.5941325941325941</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5071610071610072</v>
+        <v>0.5437360437360437</v>
       </c>
       <c r="N7" s="9">
         <v>0.5845845845845846</v>
@@ -3014,7 +3014,7 @@
         <v>0.5387295438008679</v>
       </c>
       <c r="M8" s="9">
-        <v>0.4847636454959374</v>
+        <v>0.5345170975091788</v>
       </c>
       <c r="N8" s="9">
         <v>0.6167284648926137</v>
@@ -3061,7 +3061,7 @@
         <v>0.6734693877551021</v>
       </c>
       <c r="M9" s="9">
-        <v>0.5493197278911565</v>
+        <v>0.5680272108843537</v>
       </c>
       <c r="N9" s="9">
         <v>0.6666666666666667</v>
@@ -3108,7 +3108,7 @@
         <v>0.6151041666666667</v>
       </c>
       <c r="M10" s="9">
-        <v>0.5570684523809524</v>
+        <v>0.6321428571428571</v>
       </c>
       <c r="N10" s="9">
         <v>0.5984375</v>
@@ -3155,7 +3155,7 @@
         <v>0.7507370813018653</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5587987132837631</v>
+        <v>0.538697367601022</v>
       </c>
       <c r="N11" s="9">
         <v>0.6202101700440571</v>
@@ -3202,7 +3202,7 @@
         <v>0.5940479294478528</v>
       </c>
       <c r="M12" s="8">
-        <v>0.7285118865030675</v>
+        <v>0.7521200153374233</v>
       </c>
       <c r="N12" s="9">
         <v>0.5342756901840491</v>
@@ -3249,7 +3249,7 @@
         <v>0.6499043931066828</v>
       </c>
       <c r="M13" s="9">
-        <v>0.4899969784613905</v>
+        <v>0.6168561266580881</v>
       </c>
       <c r="N13" s="8">
         <v>0.9125080424037617</v>
@@ -3294,7 +3294,7 @@
         <v>0.6280151276441907</v>
       </c>
       <c r="M15" s="9">
-        <v>0.5440830308383197</v>
+        <v>0.5797461162246675</v>
       </c>
       <c r="N15" s="9">
         <v>0.6104310131185045</v>
@@ -3384,7 +3384,7 @@
         <v>0.6535903924082478</v>
       </c>
       <c r="M20" s="9">
-        <v>0.5813629912056216</v>
+        <v>0.6129836747455942</v>
       </c>
       <c r="N20" s="9">
         <v>0.6171471096157933</v>
@@ -3429,7 +3429,7 @@
         <v>0.5870929858256004</v>
       </c>
       <c r="M21" s="9">
-        <v>0.5014258341272556</v>
+        <v>0.5231830057342149</v>
       </c>
       <c r="N21" s="9">
         <v>0.6088542263152007</v>
@@ -3474,7 +3474,7 @@
         <v>0.6442867772108845</v>
       </c>
       <c r="M22" s="9">
-        <v>0.5550622978519573</v>
+        <v>0.5796224785427443</v>
       </c>
       <c r="N22" s="9">
         <v>0.6284381122369079</v>
@@ -3519,7 +3519,7 @@
         <v>0.6219761612772678</v>
       </c>
       <c r="M23" s="9">
-        <v>0.4899969784613905</v>
+        <v>0.6168561266580881</v>
       </c>
       <c r="N23" s="9">
         <v>0.5342756901840491</v>
@@ -3564,7 +3564,7 @@
         <v>0.6267365791805002</v>
       </c>
       <c r="M25" s="9">
-        <v>0.5319620254115562</v>
+        <v>0.5831613214201603</v>
       </c>
       <c r="N25" s="9">
         <v>0.5971787845879878</v>
@@ -3606,7 +3606,7 @@
         <v>0.601291435488705</v>
       </c>
       <c r="F30" s="9">
-        <v>0.5992550504107075</v>
+        <v>0.6150653921806938</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3624,7 +3624,7 @@
         <v>0.5519254012311392</v>
       </c>
       <c r="F31" s="9">
-        <v>0.5551400302212282</v>
+        <v>0.5660186160247078</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3642,7 +3642,7 @@
         <v>0.5893102324762416</v>
       </c>
       <c r="F32" s="9">
-        <v>0.5917502050444325</v>
+        <v>0.6040302953898261</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3660,7 +3660,7 @@
         <v>0.5686433152392391</v>
       </c>
       <c r="F33" s="9">
-        <v>0.5121363343227198</v>
+        <v>0.5755659084210686</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3678,7 +3678,7 @@
         <v>0.573953383986361</v>
       </c>
       <c r="F35" s="9">
-        <v>0.5820484285587894</v>
+        <v>0.5950381011984093</v>
       </c>
     </row>
   </sheetData>
@@ -3783,7 +3783,7 @@
         <v>0.5027758323429803</v>
       </c>
       <c r="M2" s="9">
-        <v>0.5432955256233967</v>
+        <v>0.4470444004814329</v>
       </c>
       <c r="N2" s="9">
         <v>0.5291997212692967</v>
@@ -3830,7 +3830,7 @@
         <v>0.6556178547749867</v>
       </c>
       <c r="M3" s="9">
-        <v>0.521347302016447</v>
+        <v>0.6111045906637951</v>
       </c>
       <c r="N3" s="9">
         <v>0.5353468883457334</v>
@@ -3877,7 +3877,7 @@
         <v>0.6206690539723331</v>
       </c>
       <c r="M4" s="9">
-        <v>0.5715879980723869</v>
+        <v>0.5223329455207648</v>
       </c>
       <c r="N4" s="9">
         <v>0.7295776622875823</v>
@@ -3924,7 +3924,7 @@
         <v>0.5098906100157665</v>
       </c>
       <c r="M5" s="9">
-        <v>0.604443244616655</v>
+        <v>0.5162805594106972</v>
       </c>
       <c r="N5" s="9">
         <v>0.6335630172445222</v>
@@ -3971,7 +3971,7 @@
         <v>0.5903734094235649</v>
       </c>
       <c r="M6" s="9">
-        <v>0.5004028402334685</v>
+        <v>0.3899010360922989</v>
       </c>
       <c r="N6" s="9">
         <v>0.6136761556623601</v>
@@ -4018,7 +4018,7 @@
         <v>0.584965847231372</v>
       </c>
       <c r="M7" s="9">
-        <v>0.447491916295528</v>
+        <v>0.5292086833968819</v>
       </c>
       <c r="N7" s="9">
         <v>0.5801232933964893</v>
@@ -4065,7 +4065,7 @@
         <v>0.5130386273970089</v>
       </c>
       <c r="M8" s="9">
-        <v>0.4015198306246178</v>
+        <v>0.4658977899853812</v>
       </c>
       <c r="N8" s="9">
         <v>0.614549392451782</v>
@@ -4112,7 +4112,7 @@
         <v>0.6135211267605634</v>
       </c>
       <c r="M9" s="9">
-        <v>0.5095033378770403</v>
+        <v>0.5059493156254234</v>
       </c>
       <c r="N9" s="9">
         <v>0.6111111111111112</v>
@@ -4159,7 +4159,7 @@
         <v>0.5353849117484167</v>
       </c>
       <c r="M10" s="9">
-        <v>0.5656333716035209</v>
+        <v>0.586149833113623</v>
       </c>
       <c r="N10" s="9">
         <v>0.577123695976155</v>
@@ -4206,7 +4206,7 @@
         <v>0.7467689980075931</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5265733414485697</v>
+        <v>0.404284701668049</v>
       </c>
       <c r="N11" s="9">
         <v>0.6193391488362838</v>
@@ -4253,7 +4253,7 @@
         <v>0.5692436357058248</v>
       </c>
       <c r="M12" s="8">
-        <v>0.7304194179433181</v>
+        <v>0.7487636374471636</v>
       </c>
       <c r="N12" s="9">
         <v>0.4357175555975352</v>
@@ -4300,7 +4300,7 @@
         <v>0.6093935565129867</v>
       </c>
       <c r="M13" s="9">
-        <v>0.444360424961404</v>
+        <v>0.5368369488129967</v>
       </c>
       <c r="N13" s="8">
         <v>0.9166406131210783</v>
@@ -4345,7 +4345,7 @@
         <v>0.5731704059896185</v>
       </c>
       <c r="M15" s="9">
-        <v>0.5123781030339122</v>
+        <v>0.5013628004337586</v>
       </c>
       <c r="N15" s="8">
         <v>0.5890297856526229</v>
@@ -4435,7 +4435,7 @@
         <v>0.5722383377765166</v>
       </c>
       <c r="M20" s="9">
-        <v>0.5601685175822213</v>
+        <v>0.5241906240191725</v>
       </c>
       <c r="N20" s="9">
         <v>0.6069218222867836</v>
@@ -4480,7 +4480,7 @@
         <v>0.5627926280173153</v>
       </c>
       <c r="M21" s="9">
-        <v>0.4498048623845381</v>
+        <v>0.461669169824854</v>
       </c>
       <c r="N21" s="8">
         <v>0.6027829471702105</v>
@@ -4525,7 +4525,7 @@
         <v>0.5744530192544901</v>
       </c>
       <c r="M22" s="9">
-        <v>0.5339033503097103</v>
+        <v>0.4987946168023652</v>
       </c>
       <c r="N22" s="8">
         <v>0.6025246519745167</v>
@@ -4570,7 +4570,7 @@
         <v>0.5893185961094057</v>
       </c>
       <c r="M23" s="9">
-        <v>0.444360424961404</v>
+        <v>0.5368369488129967</v>
       </c>
       <c r="N23" s="9">
         <v>0.4357175555975352</v>
@@ -4615,7 +4615,7 @@
         <v>0.574700645289432</v>
       </c>
       <c r="M25" s="9">
-        <v>0.4970592888094684</v>
+        <v>0.5053728398648472</v>
       </c>
       <c r="N25" s="9">
         <v>0.5619867442572615</v>
@@ -4657,7 +4657,7 @@
         <v>0.5556634734712315</v>
       </c>
       <c r="F30" s="9">
-        <v>0.5835451699345025</v>
+        <v>0.565556223152978</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4665,7 +4665,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>0.529424406319057</v>
       </c>
       <c r="D31" s="9">
@@ -4674,8 +4674,8 @@
       <c r="E31" s="9">
         <v>0.5015393744001296</v>
       </c>
-      <c r="F31" s="9">
-        <v>0.5262939047773743</v>
+      <c r="F31" s="8">
+        <v>0.5322260584975322</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4689,11 +4689,11 @@
       <c r="D32" s="9">
         <v>0.4379264489701937</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>0.5593455041663667</v>
       </c>
-      <c r="F32" s="8">
-        <v>0.5682140011421135</v>
+      <c r="F32" s="9">
+        <v>0.5506596343884409</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4711,7 +4711,7 @@
         <v>0.536548401352673</v>
       </c>
       <c r="F33" s="9">
-        <v>0.4400389902794696</v>
+        <v>0.486277252205266</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4729,7 +4729,7 @@
         <v>0.5312504164080113</v>
       </c>
       <c r="F35" s="8">
-        <v>0.5593510252846634</v>
+        <v>0.5494806386796504</v>
       </c>
     </row>
   </sheetData>
